--- a/SUBNETEO REDES.xlsx
+++ b/SUBNETEO REDES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Universidad\Redes II\TERCER PARCIAL\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Universidad\Redes II\TERCER PARCIAL\Proyecto\PROYECTO-REDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId2"/>
-    <sheet name="Info.General" sheetId="2" r:id="rId3"/>
-    <sheet name="VLANS" sheetId="6" r:id="rId4"/>
-    <sheet name="Honduras" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Info.General" sheetId="2" r:id="rId2"/>
+    <sheet name="VLANS" sheetId="6" r:id="rId3"/>
+    <sheet name="Honduras" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="396">
   <si>
     <t>REDES:5</t>
   </si>
@@ -744,24 +743,9 @@
     <t>255.255.255.252/21</t>
   </si>
   <si>
-    <t>172.168.0.1 - 172.168.0.254</t>
-  </si>
-  <si>
-    <t>172.168.1.1 - 172.168.1.254</t>
-  </si>
-  <si>
-    <t>172.168.2.1 - 172.168.2.254</t>
-  </si>
-  <si>
-    <t>4 4</t>
-  </si>
-  <si>
     <t>172.168.3.0</t>
   </si>
   <si>
-    <t>172.168.3.1 - 172.168.3.254</t>
-  </si>
-  <si>
     <t>172.168.33.0</t>
   </si>
   <si>
@@ -898,6 +882,339 @@
   </si>
   <si>
     <t>Sub red oficinas</t>
+  </si>
+  <si>
+    <t>/27</t>
+  </si>
+  <si>
+    <t>172.168.24.31</t>
+  </si>
+  <si>
+    <t>172.168.24.32</t>
+  </si>
+  <si>
+    <t>172.168.24.63</t>
+  </si>
+  <si>
+    <t>DIRECCION GENERAL</t>
+  </si>
+  <si>
+    <t>172.168.24.64</t>
+  </si>
+  <si>
+    <t>172.168.24.95</t>
+  </si>
+  <si>
+    <t>172.168.24.96</t>
+  </si>
+  <si>
+    <t>172.168.24.127</t>
+  </si>
+  <si>
+    <t>172.168.24.128</t>
+  </si>
+  <si>
+    <t>172.168.24.159</t>
+  </si>
+  <si>
+    <t>172.168.24.160</t>
+  </si>
+  <si>
+    <t>172.168.24.191</t>
+  </si>
+  <si>
+    <t>172.168.24.192</t>
+  </si>
+  <si>
+    <t>172.168.24.223</t>
+  </si>
+  <si>
+    <t>172.168.24.30</t>
+  </si>
+  <si>
+    <t>172.168.24.62</t>
+  </si>
+  <si>
+    <t>172.168.24.94</t>
+  </si>
+  <si>
+    <t>172.168.24.126</t>
+  </si>
+  <si>
+    <t>172.168.24.158</t>
+  </si>
+  <si>
+    <t>172.168.24.190</t>
+  </si>
+  <si>
+    <t>172.168.24.222</t>
+  </si>
+  <si>
+    <t>172.168.24.1</t>
+  </si>
+  <si>
+    <t>172.168.24.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.24.65 </t>
+  </si>
+  <si>
+    <t>172.168.24.97</t>
+  </si>
+  <si>
+    <t>172.168.24.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.24.161 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.24.193 </t>
+  </si>
+  <si>
+    <t>Sub Red MASXMENOS</t>
+  </si>
+  <si>
+    <t>172.168.28.0</t>
+  </si>
+  <si>
+    <t>172.168.26.31</t>
+  </si>
+  <si>
+    <t>172.168.26.32</t>
+  </si>
+  <si>
+    <t>172.168.26.63</t>
+  </si>
+  <si>
+    <t>172.168.26.64</t>
+  </si>
+  <si>
+    <t>172.168.26.95</t>
+  </si>
+  <si>
+    <t>172.168.26.96</t>
+  </si>
+  <si>
+    <t>172.168.26.127</t>
+  </si>
+  <si>
+    <t>172.168.26.128</t>
+  </si>
+  <si>
+    <t>172.168.26.159</t>
+  </si>
+  <si>
+    <t>172.168.26.160</t>
+  </si>
+  <si>
+    <t>172.168.26.191</t>
+  </si>
+  <si>
+    <t>172.168.26.192</t>
+  </si>
+  <si>
+    <t>172.168.26.223</t>
+  </si>
+  <si>
+    <t>172.168.26.30</t>
+  </si>
+  <si>
+    <t>172.168.26.62</t>
+  </si>
+  <si>
+    <t>172.168.26.94</t>
+  </si>
+  <si>
+    <t>172.168.26.126</t>
+  </si>
+  <si>
+    <t>172.168.26.158</t>
+  </si>
+  <si>
+    <t>172.168.26.190</t>
+  </si>
+  <si>
+    <t>172.168.26.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.26.33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.26.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.26.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.26.129 </t>
+  </si>
+  <si>
+    <t>172.168.26.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.26.193 </t>
+  </si>
+  <si>
+    <t>Sub Red PALI</t>
+  </si>
+  <si>
+    <t>172.168.27.31</t>
+  </si>
+  <si>
+    <t>172.168.27.32</t>
+  </si>
+  <si>
+    <t>172.168.27.63</t>
+  </si>
+  <si>
+    <t>172.168.27.64</t>
+  </si>
+  <si>
+    <t>172.168.27.95</t>
+  </si>
+  <si>
+    <t>172.168.27.96</t>
+  </si>
+  <si>
+    <t>172.168.27.127</t>
+  </si>
+  <si>
+    <t>172.168.27.128</t>
+  </si>
+  <si>
+    <t>172.168.27.159</t>
+  </si>
+  <si>
+    <t>172.168.27.160</t>
+  </si>
+  <si>
+    <t>172.168.27.191</t>
+  </si>
+  <si>
+    <t>172.168.27.192</t>
+  </si>
+  <si>
+    <t>172.168.27.223</t>
+  </si>
+  <si>
+    <t>172.168.27.30</t>
+  </si>
+  <si>
+    <t>172.168.27.62</t>
+  </si>
+  <si>
+    <t>172.168.27.94</t>
+  </si>
+  <si>
+    <t>172.168.27.126</t>
+  </si>
+  <si>
+    <t>172.168.27.158</t>
+  </si>
+  <si>
+    <t>172.168.27.190</t>
+  </si>
+  <si>
+    <t>172.168.27.222</t>
+  </si>
+  <si>
+    <t>172.168.27.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.27.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.27.97 </t>
+  </si>
+  <si>
+    <t>172.168.27.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.27.161 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.27.193 </t>
+  </si>
+  <si>
+    <t>Sub Red MAXIPALI</t>
+  </si>
+  <si>
+    <t>172.168.28.31</t>
+  </si>
+  <si>
+    <t>172.168.28.32</t>
+  </si>
+  <si>
+    <t>172.168.28.63</t>
+  </si>
+  <si>
+    <t>172.168.28.64</t>
+  </si>
+  <si>
+    <t>172.168.28.95</t>
+  </si>
+  <si>
+    <t>172.168.28.96</t>
+  </si>
+  <si>
+    <t>172.168.28.127</t>
+  </si>
+  <si>
+    <t>172.168.28.128</t>
+  </si>
+  <si>
+    <t>172.168.28.159</t>
+  </si>
+  <si>
+    <t>172.168.28.160</t>
+  </si>
+  <si>
+    <t>172.168.28.191</t>
+  </si>
+  <si>
+    <t>172.168.28.192</t>
+  </si>
+  <si>
+    <t>/28</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>172.168.28.223</t>
+  </si>
+  <si>
+    <t>172.168.28.30</t>
+  </si>
+  <si>
+    <t>172.168.28.65</t>
+  </si>
+  <si>
+    <t>172.168.28.66</t>
+  </si>
+  <si>
+    <t>172.168.28.67</t>
+  </si>
+  <si>
+    <t>172.168.28.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.28.33 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.28.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.28.97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.28.129 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.28.161 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.28.193 </t>
   </si>
 </sst>
 </file>
@@ -929,7 +1246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,13 +1297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1286,33 +1609,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1334,28 +1630,71 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW111"/>
+  <dimension ref="A1:AX111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH21" workbookViewId="0">
-      <selection activeCell="AL42" sqref="AL42"/>
+    <sheetView tabSelected="1" topLeftCell="AI73" workbookViewId="0">
+      <selection activeCell="AU91" sqref="AU91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +2032,7 @@
     <col min="45" max="45" width="9.85546875" customWidth="1"/>
     <col min="46" max="46" width="14.42578125" customWidth="1"/>
     <col min="47" max="47" width="15.5703125" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" customWidth="1"/>
+    <col min="48" max="48" width="15.42578125" customWidth="1"/>
     <col min="49" max="49" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2292,10 +2631,10 @@
         <v>236</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="33" t="s">
@@ -2424,16 +2763,16 @@
         <v>116</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="33" t="s">
@@ -2527,7 +2866,7 @@
         <v>254</v>
       </c>
       <c r="AR26" s="37" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AS26" s="37" t="s">
         <v>231</v>
@@ -2539,10 +2878,10 @@
         <v>235</v>
       </c>
       <c r="AV26" s="37" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AW26" s="37" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -2562,16 +2901,16 @@
         <v>116</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="33" t="s">
@@ -2656,7 +2995,7 @@
         <v>120</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AP27" s="37">
         <v>152</v>
@@ -2671,16 +3010,16 @@
         <v>116</v>
       </c>
       <c r="AT27" s="37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AU27" s="37" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AV27" s="37" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AW27" s="37" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2700,16 +3039,16 @@
         <v>116</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G28" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="H28" s="38" t="s">
-        <v>253</v>
-      </c>
       <c r="I28" s="41" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="34" t="s">
@@ -2728,7 +3067,7 @@
         <v>116</v>
       </c>
       <c r="P28" s="38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q28" s="38" t="s">
         <v>144</v>
@@ -2809,16 +3148,16 @@
         <v>116</v>
       </c>
       <c r="AT28" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AU28" s="37" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AV28" s="37" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AW28" s="37" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2897,16 +3236,16 @@
         <v>116</v>
       </c>
       <c r="AT29" s="38" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="AU29" s="38" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AV29" s="38" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AW29" s="38" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
@@ -2918,8 +3257,8 @@
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="AN31" s="62"/>
-      <c r="AO31" s="60" t="s">
-        <v>275</v>
+      <c r="AO31" s="89" t="s">
+        <v>270</v>
       </c>
       <c r="AR31" s="62"/>
       <c r="AS31" s="62"/>
@@ -2959,7 +3298,7 @@
         <v>103</v>
       </c>
       <c r="AP34" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AQ34" t="s">
         <v>231</v>
@@ -2976,31 +3315,31 @@
       <c r="H35" s="44"/>
       <c r="I35" s="45"/>
       <c r="AN35" s="62"/>
-      <c r="AO35" s="72" t="s">
+      <c r="AO35" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="AP35" s="73" t="s">
+      <c r="AP35" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="AQ35" s="73" t="s">
+      <c r="AQ35" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="AR35" s="73" t="s">
+      <c r="AR35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="AS35" s="73" t="s">
+      <c r="AS35" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="AT35" s="73" t="s">
+      <c r="AT35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="AU35" s="73" t="s">
+      <c r="AU35" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="AV35" s="73" t="s">
+      <c r="AV35" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AW35" s="74" t="s">
+      <c r="AW35" s="65" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3015,32 +3354,32 @@
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="AN36" s="62"/>
-      <c r="AO36" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP36" s="76">
+      <c r="AO36" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP36" s="67">
         <v>143</v>
       </c>
-      <c r="AQ36" s="76">
+      <c r="AQ36" s="67">
         <v>254</v>
       </c>
-      <c r="AR36" s="76" t="s">
+      <c r="AR36" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="AS36" s="76" t="s">
+      <c r="AS36" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="AT36" s="76" t="s">
+      <c r="AT36" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="AU36" s="76" t="s">
+      <c r="AU36" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="AV36" s="76" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW36" s="77" t="s">
-        <v>267</v>
+      <c r="AV36" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW36" s="68" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
@@ -3053,32 +3392,32 @@
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
-      <c r="AO37" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP37" s="76">
+      <c r="AO37" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP37" s="67">
         <v>50</v>
       </c>
-      <c r="AQ37" s="76">
+      <c r="AQ37" s="67">
         <v>62</v>
       </c>
-      <c r="AR37" s="76" t="s">
+      <c r="AR37" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS37" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="AT37" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU37" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="AV37" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AS37" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT37" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU37" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="AV37" s="76" t="s">
-        <v>285</v>
-      </c>
-      <c r="AW37" s="77" t="s">
-        <v>281</v>
+      <c r="AW37" s="68" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3091,33 +3430,33 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
-      <c r="AN38" s="90"/>
-      <c r="AO38" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="AP38" s="79">
+      <c r="AN38" s="75"/>
+      <c r="AO38" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP38" s="70">
         <v>50</v>
       </c>
-      <c r="AQ38" s="79">
+      <c r="AQ38" s="70">
         <v>62</v>
       </c>
-      <c r="AR38" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="AS38" s="79" t="s">
+      <c r="AR38" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS38" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="AT38" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU38" s="70" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV38" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW38" s="71" t="s">
         <v>279</v>
-      </c>
-      <c r="AT38" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU38" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV38" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="AW38" s="80" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
@@ -3150,7 +3489,7 @@
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="AO40" s="60" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
@@ -3205,136 +3544,250 @@
       </c>
     </row>
     <row r="44" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AO44" s="87" t="s">
+      <c r="AO44" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="AP44" s="88" t="s">
+      <c r="AP44" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="AQ44" s="88" t="s">
+      <c r="AQ44" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="AR44" s="88" t="s">
+      <c r="AR44" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="AS44" s="88" t="s">
+      <c r="AS44" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="AT44" s="88" t="s">
+      <c r="AT44" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="AU44" s="88" t="s">
+      <c r="AU44" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="AV44" s="88" t="s">
+      <c r="AV44" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="AW44" s="89" t="s">
+      <c r="AW44" s="74" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO45" s="81" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP45" s="82">
-        <v>143</v>
-      </c>
-      <c r="AQ45" s="82">
-        <v>254</v>
-      </c>
-      <c r="AR45" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS45" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT45" s="82" t="s">
+      <c r="AO45" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP45" s="86">
+        <v>23</v>
+      </c>
+      <c r="AQ45" s="86">
+        <v>30</v>
+      </c>
+      <c r="AR45" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS45" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT45" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="AU45" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="AV45" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="AW45" s="83" t="s">
-        <v>267</v>
+      <c r="AU45" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV45" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="AW45" s="86" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO46" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP46" s="82">
-        <v>50</v>
-      </c>
-      <c r="AQ46" s="82">
-        <v>62</v>
-      </c>
-      <c r="AR46" s="82" t="s">
-        <v>280</v>
-      </c>
-      <c r="AS46" s="82" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT46" s="82" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU46" s="82" t="s">
+      <c r="AO46" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP46" s="86">
+        <v>22</v>
+      </c>
+      <c r="AQ46" s="86">
+        <v>30</v>
+      </c>
+      <c r="AR46" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS46" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT46" s="86" t="s">
         <v>287</v>
       </c>
-      <c r="AV46" s="82" t="s">
+      <c r="AU46" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV46" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW46" s="86" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO47" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP47" s="86">
+        <v>21</v>
+      </c>
+      <c r="AQ47" s="86">
+        <v>30</v>
+      </c>
+      <c r="AR47" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS47" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="AW46" s="83" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AO47" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="AP47" s="85">
-        <v>50</v>
-      </c>
-      <c r="AQ47" s="85">
-        <v>62</v>
-      </c>
-      <c r="AR47" s="85" t="s">
-        <v>280</v>
-      </c>
-      <c r="AS47" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT47" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU47" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV47" s="85" t="s">
-        <v>286</v>
+      <c r="AT47" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU47" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV47" s="86" t="s">
+        <v>302</v>
       </c>
       <c r="AW47" s="86" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO48" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP48" s="86">
+        <v>20</v>
+      </c>
+      <c r="AQ48" s="86">
+        <v>30</v>
+      </c>
+      <c r="AR48" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS48" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT48" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU48" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="AV48" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW48" s="86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AO49" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP49" s="86">
+        <v>20</v>
+      </c>
+      <c r="AQ49" s="86">
+        <v>30</v>
+      </c>
+      <c r="AR49" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS49" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT49" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU49" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="AV49" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW49" s="86" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AO50" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP50" s="86">
+        <v>19</v>
+      </c>
+      <c r="AQ50" s="86">
+        <v>30</v>
+      </c>
+      <c r="AR50" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS50" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT50" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="AU50" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV50" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW50" s="86" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO51" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP51" s="88">
+        <v>18</v>
+      </c>
+      <c r="AQ51" s="88">
+        <v>30</v>
+      </c>
+      <c r="AR51" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS51" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT51" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU51" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV51" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW51" s="88" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -3344,8 +3797,9 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AS53" s="1"/>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="30"/>
       <c r="C54" s="6"/>
@@ -3355,8 +3809,17 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO54" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR54" s="62"/>
+      <c r="AS54" s="62"/>
+      <c r="AT54" s="62"/>
+      <c r="AU54" s="62"/>
+      <c r="AV54" s="62"/>
+      <c r="AW54" s="62"/>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3366,8 +3829,20 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO55" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP55" s="14">
+        <v>152</v>
+      </c>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="62"/>
+      <c r="AU55" s="62"/>
+      <c r="AV55" s="62"/>
+      <c r="AW55" s="62"/>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -3377,8 +3852,14 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO56" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -3388,8 +3869,17 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO57" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -3399,8 +3889,35 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO58" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP58" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ58" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR58" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS58" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT58" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU58" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV58" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW58" s="65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -3410,8 +3927,35 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO59" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP59" s="91">
+        <v>24</v>
+      </c>
+      <c r="AQ59" s="91">
+        <v>30</v>
+      </c>
+      <c r="AR59" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS59" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT59" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU59" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV59" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW59" s="92" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -3421,8 +3965,35 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO60" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP60" s="94">
+        <v>24</v>
+      </c>
+      <c r="AQ60" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR60" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS60" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT60" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU60" s="94" t="s">
+        <v>336</v>
+      </c>
+      <c r="AV60" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="AW60" s="95" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -3432,22 +4003,107 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO61" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP61" s="94">
+        <v>23</v>
+      </c>
+      <c r="AQ61" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR61" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS61" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT61" s="94" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU61" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV61" s="94" t="s">
+        <v>331</v>
+      </c>
+      <c r="AW61" s="95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AN62" s="6"/>
+      <c r="AO62" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP62" s="94">
+        <v>21</v>
+      </c>
+      <c r="AQ62" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR62" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS62" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT62" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU62" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV62" s="94" t="s">
+        <v>332</v>
+      </c>
+      <c r="AW62" s="95" t="s">
+        <v>322</v>
+      </c>
+      <c r="AX62" s="62"/>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP63" s="94">
+        <v>20</v>
+      </c>
+      <c r="AQ63" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR63" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS63" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT63" s="94" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU63" s="94" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV63" s="94" t="s">
+        <v>333</v>
+      </c>
+      <c r="AW63" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX63" s="62"/>
+    </row>
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -3457,8 +4113,37 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP64" s="94">
+        <v>20</v>
+      </c>
+      <c r="AQ64" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR64" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS64" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT64" s="94" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU64" s="94" t="s">
+        <v>340</v>
+      </c>
+      <c r="AV64" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="AW64" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="AX64" s="62"/>
+    </row>
+    <row r="65" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="30"/>
       <c r="C65" s="6"/>
@@ -3468,8 +4153,37 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP65" s="97">
+        <v>20</v>
+      </c>
+      <c r="AQ65" s="97">
+        <v>30</v>
+      </c>
+      <c r="AR65" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS65" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT65" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU65" s="97" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV65" s="97" t="s">
+        <v>335</v>
+      </c>
+      <c r="AW65" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX65" s="62"/>
+    </row>
+    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -3479,8 +4193,19 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="6"/>
+      <c r="AQ66" s="6"/>
+      <c r="AR66" s="6"/>
+      <c r="AS66" s="6"/>
+      <c r="AT66" s="6"/>
+      <c r="AU66" s="6"/>
+      <c r="AV66" s="6"/>
+      <c r="AW66" s="6"/>
+      <c r="AX66" s="62"/>
+    </row>
+    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3490,8 +4215,17 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AN67" s="2"/>
+      <c r="AO67" s="2"/>
+      <c r="AP67" s="2"/>
+      <c r="AQ67" s="2"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2"/>
+      <c r="AV67" s="2"/>
+      <c r="AW67" s="2"/>
+    </row>
+    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -3502,7 +4236,7 @@
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -3512,8 +4246,17 @@
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO69" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="AR69" s="62"/>
+      <c r="AS69" s="62"/>
+      <c r="AT69" s="62"/>
+      <c r="AU69" s="62"/>
+      <c r="AV69" s="62"/>
+      <c r="AW69" s="62"/>
+    </row>
+    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -3523,8 +4266,20 @@
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO70" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP70" s="14">
+        <v>146</v>
+      </c>
+      <c r="AR70" s="62"/>
+      <c r="AS70" s="62"/>
+      <c r="AT70" s="62"/>
+      <c r="AU70" s="62"/>
+      <c r="AV70" s="62"/>
+      <c r="AW70" s="62"/>
+    </row>
+    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -3534,8 +4289,14 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -3545,169 +4306,646 @@
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO72" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO73" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP73" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ73" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR73" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS73" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT73" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU73" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV73" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW73" s="65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO74" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP74" s="91">
+        <v>24</v>
+      </c>
+      <c r="AQ74" s="91">
+        <v>30</v>
+      </c>
+      <c r="AR74" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS74" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT74" s="91" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU74" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV74" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="AW74" s="92" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO75" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP75" s="94">
+        <v>23</v>
+      </c>
+      <c r="AQ75" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR75" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS75" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT75" s="94" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU75" s="94" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV75" s="94" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW75" s="95" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO76" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP76" s="94">
+        <v>22</v>
+      </c>
+      <c r="AQ76" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR76" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS76" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT76" s="94" t="s">
+        <v>346</v>
+      </c>
+      <c r="AU76" s="94" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV76" s="94" t="s">
+        <v>358</v>
+      </c>
+      <c r="AW76" s="95" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO77" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP77" s="94">
+        <v>20</v>
+      </c>
+      <c r="AQ77" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR77" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS77" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT77" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU77" s="94" t="s">
+        <v>365</v>
+      </c>
+      <c r="AV77" s="94" t="s">
+        <v>359</v>
+      </c>
+      <c r="AW77" s="95" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO78" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP78" s="94">
+        <v>20</v>
+      </c>
+      <c r="AQ78" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR78" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS78" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT78" s="94" t="s">
+        <v>350</v>
+      </c>
+      <c r="AU78" s="94" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV78" s="94" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW78" s="95" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="AO79" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP79" s="94">
+        <v>19</v>
+      </c>
+      <c r="AQ79" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR79" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS79" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT79" s="94" t="s">
+        <v>352</v>
+      </c>
+      <c r="AU79" s="94" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV79" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="AW79" s="95" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO80" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP80" s="97">
+        <v>18</v>
+      </c>
+      <c r="AQ80" s="97">
+        <v>30</v>
+      </c>
+      <c r="AR80" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS80" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT80" s="97" t="s">
+        <v>354</v>
+      </c>
+      <c r="AU80" s="97" t="s">
+        <v>368</v>
+      </c>
+      <c r="AV80" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW80" s="98" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO83" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="AR83" s="62"/>
+      <c r="AS83" s="62"/>
+      <c r="AT83" s="62"/>
+      <c r="AU83" s="62"/>
+      <c r="AV83" s="62"/>
+      <c r="AW83" s="62"/>
+    </row>
+    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO84" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP84" s="14">
+        <v>138</v>
+      </c>
+      <c r="AR84" s="62"/>
+      <c r="AS84" s="62"/>
+      <c r="AT84" s="62"/>
+      <c r="AU84" s="62"/>
+      <c r="AV84" s="62"/>
+      <c r="AW84" s="62"/>
+    </row>
+    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO85" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO86" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO87" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP87" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ87" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR87" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS87" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT87" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU87" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV87" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW87" s="65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO88" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP88" s="91">
+        <v>24</v>
+      </c>
+      <c r="AQ88" s="91">
+        <v>30</v>
+      </c>
+      <c r="AR88" s="91" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS88" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT88" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU88" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV88" s="91" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW88" s="92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO89" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP89" s="94">
+        <v>23</v>
+      </c>
+      <c r="AQ89" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR89" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS89" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT89" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU89" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="AV89" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW89" s="95" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO90" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP90" s="94">
+        <v>23</v>
+      </c>
+      <c r="AQ90" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR90" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS90" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT90" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU90" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="AV90" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="AW90" s="95" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO91" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP91" s="94">
+        <v>20</v>
+      </c>
+      <c r="AQ91" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR91" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS91" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT91" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU91" s="94" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV91" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="AW91" s="95" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO92" s="93" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP92" s="94">
+        <v>18</v>
+      </c>
+      <c r="AQ92" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR92" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS92" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT92" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU92" s="94" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV92" s="94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW92" s="95" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO93" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP93" s="94">
+        <v>17</v>
+      </c>
+      <c r="AQ93" s="94">
+        <v>30</v>
+      </c>
+      <c r="AR93" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS93" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT93" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU93" s="94" t="s">
+        <v>394</v>
+      </c>
+      <c r="AV93" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="AW93" s="95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AO94" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP94" s="97">
+        <v>13</v>
+      </c>
+      <c r="AQ94" s="97">
+        <v>14</v>
+      </c>
+      <c r="AR94" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="AS94" s="97" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT94" s="97" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU94" s="97" t="s">
+        <v>395</v>
+      </c>
+      <c r="AV94" s="94" t="s">
+        <v>388</v>
+      </c>
+      <c r="AW94" s="98" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3815,160 +5053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C11:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>153</v>
-      </c>
-      <c r="E12">
-        <v>254</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>152</v>
-      </c>
-      <c r="E13">
-        <v>254</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>143</v>
-      </c>
-      <c r="E14">
-        <v>254</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" t="s">
-        <v>240</v>
-      </c>
-      <c r="J14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15">
-        <v>143</v>
-      </c>
-      <c r="E15">
-        <v>254</v>
-      </c>
-      <c r="F15" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3999,69 +5087,69 @@
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="66" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="66" t="s">
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="66" t="s">
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="68"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="81"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="63" t="s">
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="63" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63" t="s">
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="65"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84"/>
     </row>
     <row r="6" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -4674,69 +5762,69 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="69">
+      <c r="B15" s="76">
         <f>B14+C14+D14+E14</f>
         <v>579</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="76">
         <f>F14+G14+H14+I14</f>
         <v>585</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="69">
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="76">
         <f>J14+K14+L14+M14</f>
         <v>580</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="69">
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="76">
         <f>N14+O14+P14+Q14</f>
         <v>590</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="69">
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="76">
         <f>R14+S14+T14+U14</f>
         <v>571</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="71"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="78"/>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="R15:U15"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
@@ -5182,7 +6270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W126"/>
   <sheetViews>
@@ -5197,23 +6285,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -5370,13 +6458,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="69">
+      <c r="B12" s="76">
         <f>B11+C11+D11+E11</f>
         <v>322</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/SUBNETEO REDES.xlsx
+++ b/SUBNETEO REDES.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="412">
   <si>
     <t>REDES:5</t>
   </si>
@@ -584,9 +584,6 @@
     <t>S3</t>
   </si>
   <si>
-    <t>50 maquinas</t>
-  </si>
-  <si>
     <t>156 computadoras</t>
   </si>
   <si>
@@ -599,30 +596,9 @@
     <t>Seccion 3</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
-    <t>9-16</t>
-  </si>
-  <si>
-    <t>17-20</t>
-  </si>
-  <si>
-    <t>17-19</t>
-  </si>
-  <si>
-    <t>9-12</t>
-  </si>
-  <si>
     <t>WALMART COSTA RICA</t>
   </si>
   <si>
@@ -1215,6 +1191,78 @@
   </si>
   <si>
     <t xml:space="preserve">172.168.28.193 </t>
+  </si>
+  <si>
+    <t>42 maquinas</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>11-15</t>
+  </si>
+  <si>
+    <t>11-14</t>
+  </si>
+  <si>
+    <t>Sub Red Cajas</t>
+  </si>
+  <si>
+    <t>255.255.254.192</t>
+  </si>
+  <si>
+    <t>SECCION 1</t>
+  </si>
+  <si>
+    <t>/ 28</t>
+  </si>
+  <si>
+    <t>172.168.25.15</t>
+  </si>
+  <si>
+    <t>SECCION 2</t>
+  </si>
+  <si>
+    <t>172.168.25.16</t>
+  </si>
+  <si>
+    <t>172.168.25.31</t>
+  </si>
+  <si>
+    <t>SECCION 3</t>
+  </si>
+  <si>
+    <t>172.168.25.32</t>
+  </si>
+  <si>
+    <t>172.168.25.47</t>
+  </si>
+  <si>
+    <t>172.168.25.14</t>
+  </si>
+  <si>
+    <t>172.168.25.30</t>
+  </si>
+  <si>
+    <t>172.168.25.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.25.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.25.17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.168.25.33 </t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1310,6 +1358,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1638,33 +1698,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1695,6 +1728,55 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1985,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI73" workbookViewId="0">
-      <selection activeCell="AU91" sqref="AU91"/>
+    <sheetView tabSelected="1" topLeftCell="AI47" workbookViewId="0">
+      <selection activeCell="AQ63" sqref="AQ63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2061,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -2078,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2147,19 +2229,19 @@
         <v>96</v>
       </c>
       <c r="N6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="Q6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="R6" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -2174,28 +2256,28 @@
         <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="O7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="Q7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="R7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -2216,7 +2298,7 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2260,10 +2342,10 @@
         <v>2046</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>4</v>
@@ -2290,16 +2372,16 @@
         <v>2046</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>10</v>
@@ -2320,10 +2402,10 @@
         <v>2046</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>93</v>
@@ -2350,16 +2432,16 @@
         <v>2046</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>106</v>
@@ -2380,16 +2462,16 @@
         <v>2046</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>107</v>
@@ -2462,7 +2544,7 @@
         <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
         <v>115</v>
@@ -2494,19 +2576,19 @@
         <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
         <v>103</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="U23" t="s">
         <v>115</v>
@@ -2524,7 +2606,7 @@
         <v>115</v>
       </c>
       <c r="AP23" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2587,25 +2669,25 @@
         <v>103</v>
       </c>
       <c r="V24" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AE24" t="s">
         <v>103</v>
       </c>
       <c r="AF24" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s">
         <v>103</v>
       </c>
       <c r="AP24" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AQ24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2625,16 +2707,16 @@
         <v>116</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="33" t="s">
@@ -2763,16 +2845,16 @@
         <v>116</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G26" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="40" t="s">
         <v>242</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>250</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="33" t="s">
@@ -2866,22 +2948,22 @@
         <v>254</v>
       </c>
       <c r="AR26" s="37" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AS26" s="37" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AT26" s="37" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AU26" s="37" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AV26" s="37" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AW26" s="37" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
@@ -2901,16 +2983,16 @@
         <v>116</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="33" t="s">
@@ -2995,7 +3077,7 @@
         <v>120</v>
       </c>
       <c r="AO27" s="33" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AP27" s="37">
         <v>152</v>
@@ -3010,16 +3092,16 @@
         <v>116</v>
       </c>
       <c r="AT27" s="37" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AU27" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV27" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="AW27" s="37" t="s">
         <v>256</v>
-      </c>
-      <c r="AV27" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW27" s="37" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3039,16 +3121,16 @@
         <v>116</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I28" s="41" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="34" t="s">
@@ -3067,7 +3149,7 @@
         <v>116</v>
       </c>
       <c r="P28" s="38" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="38" t="s">
         <v>144</v>
@@ -3148,16 +3230,16 @@
         <v>116</v>
       </c>
       <c r="AT28" s="37" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="AU28" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV28" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW28" s="37" t="s">
         <v>257</v>
-      </c>
-      <c r="AV28" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW28" s="37" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3236,16 +3318,16 @@
         <v>116</v>
       </c>
       <c r="AT29" s="38" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="AU29" s="38" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AV29" s="38" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AW29" s="38" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
@@ -3257,8 +3339,8 @@
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="AN31" s="62"/>
-      <c r="AO31" s="89" t="s">
-        <v>270</v>
+      <c r="AO31" s="80" t="s">
+        <v>262</v>
       </c>
       <c r="AR31" s="62"/>
       <c r="AS31" s="62"/>
@@ -3289,7 +3371,7 @@
         <v>115</v>
       </c>
       <c r="AP33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3298,10 +3380,10 @@
         <v>103</v>
       </c>
       <c r="AP34" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AQ34" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,7 +3437,7 @@
       <c r="I36" s="42"/>
       <c r="AN36" s="62"/>
       <c r="AO36" s="66" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AP36" s="67">
         <v>143</v>
@@ -3370,16 +3452,16 @@
         <v>116</v>
       </c>
       <c r="AT36" s="67" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AU36" s="67" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AV36" s="67" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AW36" s="68" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
@@ -3393,7 +3475,7 @@
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="AO37" s="66" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AP37" s="67">
         <v>50</v>
@@ -3402,22 +3484,22 @@
         <v>62</v>
       </c>
       <c r="AR37" s="67" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AS37" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT37" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU37" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="AT37" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="AU37" s="67" t="s">
-        <v>282</v>
-      </c>
       <c r="AV37" s="67" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AW37" s="68" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3432,7 +3514,7 @@
       <c r="I38" s="42"/>
       <c r="AN38" s="75"/>
       <c r="AO38" s="69" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AP38" s="70">
         <v>50</v>
@@ -3441,22 +3523,22 @@
         <v>62</v>
       </c>
       <c r="AR38" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS38" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT38" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU38" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="AS38" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="AT38" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="AU38" s="70" t="s">
-        <v>283</v>
-      </c>
       <c r="AV38" s="70" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AW38" s="71" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
@@ -3489,7 +3571,7 @@
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="AO40" s="60" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.25">
@@ -3529,7 +3611,7 @@
         <v>115</v>
       </c>
       <c r="AP42" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3573,177 +3655,177 @@
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO45" s="85" t="s">
+      <c r="AO45" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="AP45" s="86">
+      <c r="AP45" s="77">
         <v>23</v>
       </c>
-      <c r="AQ45" s="86">
+      <c r="AQ45" s="77">
         <v>30</v>
       </c>
-      <c r="AR45" s="86" t="s">
+      <c r="AR45" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="AS45" s="86" t="s">
+      <c r="AS45" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT45" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU45" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="AV45" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW45" s="77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO46" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP46" s="77">
+        <v>22</v>
+      </c>
+      <c r="AQ46" s="77">
+        <v>30</v>
+      </c>
+      <c r="AR46" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS46" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT46" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU46" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV46" s="77" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW46" s="77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO47" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP47" s="77">
+        <v>21</v>
+      </c>
+      <c r="AQ47" s="77">
+        <v>30</v>
+      </c>
+      <c r="AR47" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS47" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT47" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="AU47" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="AV47" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW47" s="77" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO48" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP48" s="77">
+        <v>20</v>
+      </c>
+      <c r="AQ48" s="77">
+        <v>30</v>
+      </c>
+      <c r="AR48" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS48" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT48" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU48" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="AV48" s="77" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW48" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="AT45" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="AU45" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="AV45" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="AW45" s="86" t="s">
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AO49" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP49" s="77">
+        <v>20</v>
+      </c>
+      <c r="AQ49" s="77">
+        <v>30</v>
+      </c>
+      <c r="AR49" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS49" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT49" s="77" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO46" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP46" s="86">
-        <v>22</v>
-      </c>
-      <c r="AQ46" s="86">
+      <c r="AU49" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV49" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW49" s="77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AO50" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP50" s="77">
+        <v>19</v>
+      </c>
+      <c r="AQ50" s="77">
         <v>30</v>
       </c>
-      <c r="AR46" s="86" t="s">
+      <c r="AR50" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="AS46" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT46" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU46" s="86" t="s">
-        <v>308</v>
-      </c>
-      <c r="AV46" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW46" s="86" t="s">
+      <c r="AS50" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT50" s="77" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO47" s="85" t="s">
+      <c r="AU50" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV50" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="AW50" s="77" t="s">
         <v>289</v>
-      </c>
-      <c r="AP47" s="86">
-        <v>21</v>
-      </c>
-      <c r="AQ47" s="86">
-        <v>30</v>
-      </c>
-      <c r="AR47" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS47" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT47" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU47" s="86" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV47" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="AW47" s="86" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO48" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP48" s="86">
-        <v>20</v>
-      </c>
-      <c r="AQ48" s="86">
-        <v>30</v>
-      </c>
-      <c r="AR48" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS48" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT48" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU48" s="86" t="s">
-        <v>310</v>
-      </c>
-      <c r="AV48" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="AW48" s="86" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AO49" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP49" s="86">
-        <v>20</v>
-      </c>
-      <c r="AQ49" s="86">
-        <v>30</v>
-      </c>
-      <c r="AR49" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS49" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT49" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="AU49" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="AV49" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW49" s="86" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AO50" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP50" s="86">
-        <v>19</v>
-      </c>
-      <c r="AQ50" s="86">
-        <v>30</v>
-      </c>
-      <c r="AR50" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS50" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT50" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU50" s="86" t="s">
-        <v>312</v>
-      </c>
-      <c r="AV50" s="86" t="s">
-        <v>305</v>
-      </c>
-      <c r="AW50" s="86" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3752,32 +3834,32 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="AO51" s="87" t="s">
+      <c r="AO51" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="AP51" s="88">
+      <c r="AP51" s="79">
         <v>18</v>
       </c>
-      <c r="AQ51" s="88">
+      <c r="AQ51" s="79">
         <v>30</v>
       </c>
-      <c r="AR51" s="88" t="s">
+      <c r="AR51" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="AS51" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT51" s="88" t="s">
+      <c r="AS51" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT51" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU51" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV51" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="AU51" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV51" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="AW51" s="88" t="s">
-        <v>299</v>
+      <c r="AW51" s="79" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
@@ -3797,7 +3879,15 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="AS53" s="1"/>
+      <c r="AO53" s="108" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR53" s="62"/>
+      <c r="AS53" s="62"/>
+      <c r="AT53" s="62"/>
+      <c r="AU53" s="62"/>
+      <c r="AV53" s="62"/>
+      <c r="AW53" s="62"/>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -3809,8 +3899,11 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
-      <c r="AO54" s="89" t="s">
-        <v>314</v>
+      <c r="AO54" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP54" s="14">
+        <v>42</v>
       </c>
       <c r="AR54" s="62"/>
       <c r="AS54" s="62"/>
@@ -3830,19 +3923,13 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="AO55" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP55" s="14">
-        <v>152</v>
-      </c>
-      <c r="AR55" s="62"/>
-      <c r="AS55" s="62"/>
-      <c r="AT55" s="62"/>
-      <c r="AU55" s="62"/>
-      <c r="AV55" s="62"/>
-      <c r="AW55" s="62"/>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -3853,10 +3940,13 @@
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="AO56" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AP56" t="s">
-        <v>254</v>
+        <v>396</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3869,17 +3959,35 @@
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="AO57" t="s">
+      <c r="AO57" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP57" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ57" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR57" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="AP57" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS57" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT57" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU57" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV57" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW57" s="107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -3889,32 +3997,32 @@
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
-      <c r="AO58" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP58" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ58" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR58" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS58" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT58" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU58" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV58" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW58" s="65" t="s">
-        <v>40</v>
+      <c r="AO58" s="99" t="s">
+        <v>397</v>
+      </c>
+      <c r="AP58" s="100">
+        <v>14</v>
+      </c>
+      <c r="AQ58" s="100">
+        <v>14</v>
+      </c>
+      <c r="AR58" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS58" s="100" t="s">
+        <v>398</v>
+      </c>
+      <c r="AT58" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="AU58" s="100" t="s">
+        <v>409</v>
+      </c>
+      <c r="AV58" s="100" t="s">
+        <v>406</v>
+      </c>
+      <c r="AW58" s="101" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.25">
@@ -3927,35 +4035,35 @@
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
-      <c r="AO59" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP59" s="91">
-        <v>24</v>
-      </c>
-      <c r="AQ59" s="91">
-        <v>30</v>
-      </c>
-      <c r="AR59" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS59" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT59" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU59" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV59" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW59" s="92" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AO59" s="99" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP59" s="100">
+        <v>14</v>
+      </c>
+      <c r="AQ59" s="100">
+        <v>14</v>
+      </c>
+      <c r="AR59" s="100" t="s">
+        <v>401</v>
+      </c>
+      <c r="AS59" s="100" t="s">
+        <v>398</v>
+      </c>
+      <c r="AT59" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="AU59" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="AV59" s="100" t="s">
+        <v>407</v>
+      </c>
+      <c r="AW59" s="101" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -3965,32 +4073,32 @@
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
-      <c r="AO60" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP60" s="94">
-        <v>24</v>
-      </c>
-      <c r="AQ60" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR60" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS60" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT60" s="94" t="s">
-        <v>317</v>
-      </c>
-      <c r="AU60" s="94" t="s">
-        <v>336</v>
-      </c>
-      <c r="AV60" s="94" t="s">
-        <v>330</v>
-      </c>
-      <c r="AW60" s="95" t="s">
-        <v>318</v>
+      <c r="AO60" s="102" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP60" s="103">
+        <v>14</v>
+      </c>
+      <c r="AQ60" s="103">
+        <v>14</v>
+      </c>
+      <c r="AR60" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="AS60" s="103" t="s">
+        <v>398</v>
+      </c>
+      <c r="AT60" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="AU60" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="AV60" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW60" s="104" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
@@ -4003,33 +4111,6 @@
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
-      <c r="AO61" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP61" s="94">
-        <v>23</v>
-      </c>
-      <c r="AQ61" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR61" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS61" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT61" s="94" t="s">
-        <v>319</v>
-      </c>
-      <c r="AU61" s="94" t="s">
-        <v>337</v>
-      </c>
-      <c r="AV61" s="94" t="s">
-        <v>331</v>
-      </c>
-      <c r="AW61" s="95" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
@@ -4038,33 +4119,6 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="AN62" s="6"/>
-      <c r="AO62" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP62" s="94">
-        <v>21</v>
-      </c>
-      <c r="AQ62" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR62" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS62" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT62" s="94" t="s">
-        <v>321</v>
-      </c>
-      <c r="AU62" s="94" t="s">
-        <v>338</v>
-      </c>
-      <c r="AV62" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="AW62" s="95" t="s">
-        <v>322</v>
-      </c>
       <c r="AX62" s="62"/>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.25">
@@ -4074,33 +4128,15 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="AN63" s="6"/>
-      <c r="AO63" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP63" s="94">
-        <v>20</v>
-      </c>
-      <c r="AQ63" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR63" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS63" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT63" s="94" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU63" s="94" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV63" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="AW63" s="95" t="s">
-        <v>324</v>
-      </c>
+      <c r="AO63" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="AR63" s="62"/>
+      <c r="AS63" s="62"/>
+      <c r="AT63" s="62"/>
+      <c r="AU63" s="62"/>
+      <c r="AV63" s="62"/>
+      <c r="AW63" s="62"/>
       <c r="AX63" s="62"/>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.25">
@@ -4114,36 +4150,21 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="AN64" s="6"/>
-      <c r="AO64" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP64" s="94">
-        <v>20</v>
-      </c>
-      <c r="AQ64" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR64" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS64" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT64" s="94" t="s">
-        <v>325</v>
-      </c>
-      <c r="AU64" s="94" t="s">
-        <v>340</v>
-      </c>
-      <c r="AV64" s="94" t="s">
-        <v>334</v>
-      </c>
-      <c r="AW64" s="95" t="s">
-        <v>326</v>
-      </c>
+      <c r="AO64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP64" s="14">
+        <v>152</v>
+      </c>
+      <c r="AR64" s="62"/>
+      <c r="AS64" s="62"/>
+      <c r="AT64" s="62"/>
+      <c r="AU64" s="62"/>
+      <c r="AV64" s="62"/>
+      <c r="AW64" s="62"/>
       <c r="AX64" s="62"/>
     </row>
-    <row r="65" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="30"/>
       <c r="C65" s="6"/>
@@ -4154,36 +4175,15 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="AN65" s="6"/>
-      <c r="AO65" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP65" s="97">
-        <v>20</v>
-      </c>
-      <c r="AQ65" s="97">
-        <v>30</v>
-      </c>
-      <c r="AR65" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS65" s="97" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT65" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="AU65" s="97" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV65" s="97" t="s">
-        <v>335</v>
-      </c>
-      <c r="AW65" s="98" t="s">
-        <v>328</v>
+      <c r="AO65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>246</v>
       </c>
       <c r="AX65" s="62"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -4194,18 +4194,18 @@
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="AN66" s="6"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="6"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="6"/>
-      <c r="AS66" s="6"/>
-      <c r="AT66" s="6"/>
-      <c r="AU66" s="6"/>
-      <c r="AV66" s="6"/>
-      <c r="AW66" s="6"/>
+      <c r="AO66" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>116</v>
+      </c>
       <c r="AX66" s="62"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4216,14 +4216,33 @@
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="AN67" s="2"/>
-      <c r="AO67" s="2"/>
-      <c r="AP67" s="2"/>
-      <c r="AQ67" s="2"/>
-      <c r="AS67" s="2"/>
-      <c r="AT67" s="2"/>
-      <c r="AU67" s="2"/>
-      <c r="AV67" s="2"/>
-      <c r="AW67" s="2"/>
+      <c r="AO67" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP67" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ67" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR67" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS67" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT67" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU67" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV67" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW67" s="65" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="28"/>
@@ -4235,6 +4254,33 @@
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
+      <c r="AO68" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP68" s="82">
+        <v>24</v>
+      </c>
+      <c r="AQ68" s="82">
+        <v>30</v>
+      </c>
+      <c r="AR68" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS68" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT68" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU68" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="AV68" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="AW68" s="83" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
@@ -4246,15 +4292,33 @@
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
-      <c r="AO69" s="89" t="s">
-        <v>342</v>
-      </c>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="62"/>
-      <c r="AU69" s="62"/>
-      <c r="AV69" s="62"/>
-      <c r="AW69" s="62"/>
+      <c r="AO69" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP69" s="85">
+        <v>24</v>
+      </c>
+      <c r="AQ69" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR69" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS69" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT69" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU69" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="AV69" s="85" t="s">
+        <v>322</v>
+      </c>
+      <c r="AW69" s="86" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
@@ -4266,18 +4330,33 @@
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
-      <c r="AO70" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP70" s="14">
-        <v>146</v>
-      </c>
-      <c r="AR70" s="62"/>
-      <c r="AS70" s="62"/>
-      <c r="AT70" s="62"/>
-      <c r="AU70" s="62"/>
-      <c r="AV70" s="62"/>
-      <c r="AW70" s="62"/>
+      <c r="AO70" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP70" s="85">
+        <v>23</v>
+      </c>
+      <c r="AQ70" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR70" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS70" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT70" s="85" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU70" s="85" t="s">
+        <v>329</v>
+      </c>
+      <c r="AV70" s="85" t="s">
+        <v>323</v>
+      </c>
+      <c r="AW70" s="86" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
@@ -4289,14 +4368,35 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
-      <c r="AO71" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO71" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP71" s="85">
+        <v>21</v>
+      </c>
+      <c r="AQ71" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR71" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS71" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT71" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU71" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="AV71" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW71" s="86" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -4306,82 +4406,100 @@
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
-      <c r="AO72" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP72" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO72" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP72" s="85">
+        <v>20</v>
+      </c>
+      <c r="AQ72" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR72" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS72" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT72" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU72" s="85" t="s">
+        <v>331</v>
+      </c>
+      <c r="AV72" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW72" s="86" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-      <c r="AO73" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP73" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ73" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR73" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS73" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT73" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU73" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV73" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW73" s="65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AO73" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP73" s="85">
+        <v>20</v>
+      </c>
+      <c r="AQ73" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR73" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS73" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT73" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU73" s="85" t="s">
+        <v>332</v>
+      </c>
+      <c r="AV73" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="AW73" s="86" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="AO74" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP74" s="91">
-        <v>24</v>
-      </c>
-      <c r="AQ74" s="91">
+      <c r="AO74" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP74" s="88">
+        <v>20</v>
+      </c>
+      <c r="AQ74" s="88">
         <v>30</v>
       </c>
-      <c r="AR74" s="91" t="s">
+      <c r="AR74" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="AS74" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT74" s="91" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU74" s="91" t="s">
-        <v>257</v>
-      </c>
-      <c r="AV74" s="91" t="s">
-        <v>356</v>
-      </c>
-      <c r="AW74" s="92" t="s">
-        <v>343</v>
+      <c r="AS74" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT74" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU74" s="88" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV74" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="AW74" s="89" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
@@ -4390,33 +4508,15 @@
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-      <c r="AO75" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP75" s="94">
-        <v>23</v>
-      </c>
-      <c r="AQ75" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR75" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS75" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT75" s="94" t="s">
-        <v>344</v>
-      </c>
-      <c r="AU75" s="94" t="s">
-        <v>363</v>
-      </c>
-      <c r="AV75" s="94" t="s">
-        <v>357</v>
-      </c>
-      <c r="AW75" s="95" t="s">
-        <v>345</v>
-      </c>
+      <c r="AO75" s="6"/>
+      <c r="AP75" s="6"/>
+      <c r="AQ75" s="6"/>
+      <c r="AR75" s="6"/>
+      <c r="AS75" s="6"/>
+      <c r="AT75" s="6"/>
+      <c r="AU75" s="6"/>
+      <c r="AV75" s="6"/>
+      <c r="AW75" s="6"/>
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
@@ -4424,33 +4524,14 @@
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="AO76" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP76" s="94">
-        <v>22</v>
-      </c>
-      <c r="AQ76" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR76" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS76" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT76" s="94" t="s">
-        <v>346</v>
-      </c>
-      <c r="AU76" s="94" t="s">
-        <v>364</v>
-      </c>
-      <c r="AV76" s="94" t="s">
-        <v>358</v>
-      </c>
-      <c r="AW76" s="95" t="s">
-        <v>347</v>
-      </c>
+      <c r="AO76" s="2"/>
+      <c r="AP76" s="2"/>
+      <c r="AQ76" s="2"/>
+      <c r="AS76" s="2"/>
+      <c r="AT76" s="2"/>
+      <c r="AU76" s="2"/>
+      <c r="AV76" s="2"/>
+      <c r="AW76" s="2"/>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
@@ -4458,33 +4539,6 @@
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="AO77" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP77" s="94">
-        <v>20</v>
-      </c>
-      <c r="AQ77" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR77" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS77" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT77" s="94" t="s">
-        <v>348</v>
-      </c>
-      <c r="AU77" s="94" t="s">
-        <v>365</v>
-      </c>
-      <c r="AV77" s="94" t="s">
-        <v>359</v>
-      </c>
-      <c r="AW77" s="95" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
@@ -4492,33 +4546,15 @@
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="AO78" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP78" s="94">
-        <v>20</v>
-      </c>
-      <c r="AQ78" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR78" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS78" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT78" s="94" t="s">
-        <v>350</v>
-      </c>
-      <c r="AU78" s="94" t="s">
-        <v>366</v>
-      </c>
-      <c r="AV78" s="94" t="s">
-        <v>360</v>
-      </c>
-      <c r="AW78" s="95" t="s">
-        <v>351</v>
-      </c>
+      <c r="AO78" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="AR78" s="62"/>
+      <c r="AS78" s="62"/>
+      <c r="AT78" s="62"/>
+      <c r="AU78" s="62"/>
+      <c r="AV78" s="62"/>
+      <c r="AW78" s="62"/>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
@@ -4526,81 +4562,81 @@
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="AO79" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP79" s="94">
-        <v>19</v>
-      </c>
-      <c r="AQ79" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR79" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS79" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT79" s="94" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU79" s="94" t="s">
-        <v>367</v>
-      </c>
-      <c r="AV79" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="AW79" s="95" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO79" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP79" s="14">
+        <v>146</v>
+      </c>
+      <c r="AR79" s="62"/>
+      <c r="AS79" s="62"/>
+      <c r="AT79" s="62"/>
+      <c r="AU79" s="62"/>
+      <c r="AV79" s="62"/>
+      <c r="AW79" s="62"/>
+    </row>
+    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-      <c r="AO80" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP80" s="97">
-        <v>18</v>
-      </c>
-      <c r="AQ80" s="97">
-        <v>30</v>
-      </c>
-      <c r="AR80" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS80" s="97" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT80" s="97" t="s">
-        <v>354</v>
-      </c>
-      <c r="AU80" s="97" t="s">
-        <v>368</v>
-      </c>
-      <c r="AV80" s="97" t="s">
-        <v>362</v>
-      </c>
-      <c r="AW80" s="98" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO80" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO81" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
+      <c r="AO82" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP82" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ82" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR82" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS82" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT82" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU82" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV82" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW82" s="65" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="83" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
@@ -4608,15 +4644,33 @@
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
-      <c r="AO83" s="89" t="s">
-        <v>369</v>
-      </c>
-      <c r="AR83" s="62"/>
-      <c r="AS83" s="62"/>
-      <c r="AT83" s="62"/>
-      <c r="AU83" s="62"/>
-      <c r="AV83" s="62"/>
-      <c r="AW83" s="62"/>
+      <c r="AO83" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP83" s="82">
+        <v>24</v>
+      </c>
+      <c r="AQ83" s="82">
+        <v>30</v>
+      </c>
+      <c r="AR83" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS83" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT83" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU83" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV83" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW83" s="83" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="84" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
@@ -4624,18 +4678,33 @@
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-      <c r="AO84" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP84" s="14">
-        <v>138</v>
-      </c>
-      <c r="AR84" s="62"/>
-      <c r="AS84" s="62"/>
-      <c r="AT84" s="62"/>
-      <c r="AU84" s="62"/>
-      <c r="AV84" s="62"/>
-      <c r="AW84" s="62"/>
+      <c r="AO84" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP84" s="85">
+        <v>23</v>
+      </c>
+      <c r="AQ84" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR84" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS84" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT84" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU84" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV84" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="AW84" s="86" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="85" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
@@ -4643,61 +4712,100 @@
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="AO85" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP85" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO85" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP85" s="85">
+        <v>22</v>
+      </c>
+      <c r="AQ85" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR85" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS85" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT85" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU85" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV85" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="AW85" s="86" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="AO86" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP86" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO86" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP86" s="85">
+        <v>20</v>
+      </c>
+      <c r="AQ86" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR86" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS86" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT86" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU86" s="85" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV86" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="AW86" s="86" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="AO87" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP87" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ87" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR87" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS87" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT87" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU87" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV87" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW87" s="65" t="s">
-        <v>40</v>
+      <c r="AO87" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP87" s="85">
+        <v>20</v>
+      </c>
+      <c r="AQ87" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR87" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS87" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT87" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU87" s="85" t="s">
+        <v>358</v>
+      </c>
+      <c r="AV87" s="85" t="s">
+        <v>352</v>
+      </c>
+      <c r="AW87" s="86" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="1:49" x14ac:dyDescent="0.25">
@@ -4706,66 +4814,66 @@
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-      <c r="AO88" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP88" s="91">
-        <v>24</v>
-      </c>
-      <c r="AQ88" s="91">
+      <c r="AO88" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP88" s="85">
+        <v>19</v>
+      </c>
+      <c r="AQ88" s="85">
         <v>30</v>
       </c>
-      <c r="AR88" s="91" t="s">
-        <v>315</v>
-      </c>
-      <c r="AS88" s="91" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT88" s="91" t="s">
+      <c r="AR88" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="AU88" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV88" s="91" t="s">
-        <v>385</v>
-      </c>
-      <c r="AW88" s="92" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AS88" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT88" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU88" s="85" t="s">
+        <v>359</v>
+      </c>
+      <c r="AV88" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW88" s="86" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
-      <c r="AO89" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP89" s="94">
-        <v>23</v>
-      </c>
-      <c r="AQ89" s="94">
+      <c r="AO89" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP89" s="88">
+        <v>18</v>
+      </c>
+      <c r="AQ89" s="88">
         <v>30</v>
       </c>
-      <c r="AR89" s="94" t="s">
-        <v>371</v>
-      </c>
-      <c r="AS89" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT89" s="94" t="s">
+      <c r="AR89" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="AU89" s="94" t="s">
-        <v>390</v>
-      </c>
-      <c r="AV89" s="94" t="s">
-        <v>389</v>
-      </c>
-      <c r="AW89" s="95" t="s">
-        <v>372</v>
+      <c r="AS89" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT89" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="AU89" s="88" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV89" s="88" t="s">
+        <v>354</v>
+      </c>
+      <c r="AW89" s="89" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:49" x14ac:dyDescent="0.25">
@@ -4774,33 +4882,6 @@
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-      <c r="AO90" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="AP90" s="94">
-        <v>23</v>
-      </c>
-      <c r="AQ90" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR90" s="94" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS90" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT90" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU90" s="94" t="s">
-        <v>391</v>
-      </c>
-      <c r="AV90" s="94" t="s">
-        <v>372</v>
-      </c>
-      <c r="AW90" s="95" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="91" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
@@ -4808,33 +4889,6 @@
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-      <c r="AO91" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP91" s="94">
-        <v>20</v>
-      </c>
-      <c r="AQ91" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR91" s="94" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS91" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT91" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU91" s="94" t="s">
-        <v>392</v>
-      </c>
-      <c r="AV91" s="94" t="s">
-        <v>373</v>
-      </c>
-      <c r="AW91" s="95" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="92" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
@@ -4842,33 +4896,15 @@
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
-      <c r="AO92" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP92" s="94">
-        <v>18</v>
-      </c>
-      <c r="AQ92" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR92" s="94" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS92" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT92" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU92" s="94" t="s">
-        <v>393</v>
-      </c>
-      <c r="AV92" s="94" t="s">
-        <v>386</v>
-      </c>
-      <c r="AW92" s="95" t="s">
-        <v>378</v>
-      </c>
+      <c r="AO92" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR92" s="62"/>
+      <c r="AS92" s="62"/>
+      <c r="AT92" s="62"/>
+      <c r="AU92" s="62"/>
+      <c r="AV92" s="62"/>
+      <c r="AW92" s="62"/>
     </row>
     <row r="93" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
@@ -4876,167 +4912,356 @@
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
-      <c r="AO93" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP93" s="94">
-        <v>17</v>
-      </c>
-      <c r="AQ93" s="94">
-        <v>30</v>
-      </c>
-      <c r="AR93" s="94" t="s">
-        <v>379</v>
-      </c>
-      <c r="AS93" s="94" t="s">
-        <v>285</v>
-      </c>
-      <c r="AT93" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU93" s="94" t="s">
-        <v>394</v>
-      </c>
-      <c r="AV93" s="94" t="s">
-        <v>387</v>
-      </c>
-      <c r="AW93" s="95" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="94" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO93" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP93" s="14">
+        <v>138</v>
+      </c>
+      <c r="AR93" s="62"/>
+      <c r="AS93" s="62"/>
+      <c r="AT93" s="62"/>
+      <c r="AU93" s="62"/>
+      <c r="AV93" s="62"/>
+      <c r="AW93" s="62"/>
+    </row>
+    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-      <c r="AO94" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="AP94" s="97">
-        <v>13</v>
-      </c>
-      <c r="AQ94" s="97">
-        <v>14</v>
-      </c>
-      <c r="AR94" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="AS94" s="97" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT94" s="97" t="s">
-        <v>383</v>
-      </c>
-      <c r="AU94" s="97" t="s">
-        <v>395</v>
-      </c>
-      <c r="AV94" s="94" t="s">
-        <v>388</v>
-      </c>
-      <c r="AW94" s="98" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO94" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AO95" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO96" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP96" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ96" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR96" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS96" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT96" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU96" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV96" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW96" s="65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO97" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP97" s="82">
+        <v>24</v>
+      </c>
+      <c r="AQ97" s="82">
+        <v>30</v>
+      </c>
+      <c r="AR97" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS97" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT97" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU97" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV97" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW97" s="83" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO98" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP98" s="85">
+        <v>23</v>
+      </c>
+      <c r="AQ98" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR98" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS98" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT98" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU98" s="85" t="s">
+        <v>382</v>
+      </c>
+      <c r="AV98" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW98" s="86" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO99" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP99" s="85">
+        <v>23</v>
+      </c>
+      <c r="AQ99" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR99" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="AS99" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT99" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU99" s="85" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV99" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW99" s="86" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO100" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP100" s="85">
+        <v>20</v>
+      </c>
+      <c r="AQ100" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR100" s="85" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS100" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT100" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU100" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="AV100" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW100" s="86" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO101" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP101" s="85">
+        <v>18</v>
+      </c>
+      <c r="AQ101" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR101" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="AS101" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT101" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU101" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="AV101" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW101" s="86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO102" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP102" s="85">
+        <v>17</v>
+      </c>
+      <c r="AQ102" s="85">
+        <v>30</v>
+      </c>
+      <c r="AR102" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS102" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT102" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU102" s="85" t="s">
+        <v>386</v>
+      </c>
+      <c r="AV102" s="85" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW102" s="86" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="AO103" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP103" s="88">
+        <v>13</v>
+      </c>
+      <c r="AQ103" s="88">
+        <v>14</v>
+      </c>
+      <c r="AR103" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS103" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT103" s="88" t="s">
+        <v>375</v>
+      </c>
+      <c r="AU103" s="88" t="s">
+        <v>387</v>
+      </c>
+      <c r="AV103" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="AW103" s="89" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -5087,69 +5312,69 @@
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="79" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="79" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="79" t="s">
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="79" t="s">
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="81"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="95"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="82" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="82" t="s">
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="82" t="s">
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="82" t="s">
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="84"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="92"/>
     </row>
     <row r="6" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -5762,62 +5987,62 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="76">
+      <c r="B15" s="96">
         <f>B14+C14+D14+E14</f>
         <v>579</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="76">
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="96">
         <f>F14+G14+H14+I14</f>
         <v>585</v>
       </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="76">
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="96">
         <f>J14+K14+L14+M14</f>
         <v>580</v>
       </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="76">
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="96">
         <f>N14+O14+P14+Q14</f>
         <v>590</v>
       </c>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="76">
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="96">
         <f>R14+S14+T14+U14</f>
         <v>571</v>
       </c>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="78"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="98"/>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="R5:U5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:U15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5829,7 +6054,7 @@
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,12 +6066,12 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5861,7 +6086,7 @@
       <c r="G5" s="53"/>
       <c r="H5" s="54"/>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5888,7 +6113,7 @@
         <v>162</v>
       </c>
       <c r="K6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5915,10 +6140,10 @@
         <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5947,10 +6172,10 @@
         <v>179</v>
       </c>
       <c r="K8" s="59" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L8" s="59" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5979,10 +6204,10 @@
         <v>179</v>
       </c>
       <c r="K9" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="59" t="s">
         <v>204</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6011,10 +6236,10 @@
         <v>179</v>
       </c>
       <c r="K10" s="59" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6043,10 +6268,10 @@
         <v>179</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6075,10 +6300,10 @@
         <v>179</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6135,10 +6360,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>185</v>
+        <v>388</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6158,13 +6383,13 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6172,13 +6397,13 @@
         <v>163</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>192</v>
+        <v>390</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>194</v>
+        <v>391</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>195</v>
+        <v>393</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
@@ -6190,13 +6415,13 @@
         <v>164</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>192</v>
+        <v>390</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>194</v>
+        <v>391</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
@@ -6208,13 +6433,13 @@
         <v>184</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>196</v>
+        <v>394</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
@@ -6224,13 +6449,13 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="55" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>191</v>
+        <v>389</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
@@ -6285,23 +6510,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -6458,13 +6683,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="76">
+      <c r="B12" s="96">
         <f>B11+C11+D11+E11</f>
         <v>322</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/SUBNETEO REDES.xlsx
+++ b/SUBNETEO REDES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Universidad\Redes II\TERCER PARCIAL\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AstarothiXYZ\Desktop\proyecto redes\PROYECTO-REDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83D3BB8-A415-4589-90AF-CCC5EA7C4562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,16 @@
     <sheet name="VLANS" sheetId="6" r:id="rId4"/>
     <sheet name="Honduras" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -903,7 +910,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1286,33 +1293,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,6 +1336,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1643,11 +1650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH21" workbookViewId="0">
-      <selection activeCell="AL42" sqref="AL42"/>
+    <sheetView topLeftCell="AL27" workbookViewId="0">
+      <selection activeCell="AW36" sqref="AW36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1696,7 @@
     <col min="41" max="41" width="17.85546875" customWidth="1"/>
     <col min="42" max="42" width="17.140625" customWidth="1"/>
     <col min="43" max="43" width="15.140625" customWidth="1"/>
-    <col min="44" max="44" width="13.42578125" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" customWidth="1"/>
     <col min="45" max="45" width="9.85546875" customWidth="1"/>
     <col min="46" max="46" width="14.42578125" customWidth="1"/>
     <col min="47" max="47" width="15.5703125" customWidth="1"/>
@@ -2976,31 +2983,31 @@
       <c r="H35" s="44"/>
       <c r="I35" s="45"/>
       <c r="AN35" s="62"/>
-      <c r="AO35" s="72" t="s">
+      <c r="AO35" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="AP35" s="73" t="s">
+      <c r="AP35" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="AQ35" s="73" t="s">
+      <c r="AQ35" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="AR35" s="73" t="s">
+      <c r="AR35" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="AS35" s="73" t="s">
+      <c r="AS35" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="AT35" s="73" t="s">
+      <c r="AT35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="AU35" s="73" t="s">
+      <c r="AU35" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="AV35" s="73" t="s">
+      <c r="AV35" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AW35" s="74" t="s">
+      <c r="AW35" s="65" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3015,31 +3022,31 @@
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="AN36" s="62"/>
-      <c r="AO36" s="75" t="s">
+      <c r="AO36" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="AP36" s="76">
+      <c r="AP36" s="67">
         <v>143</v>
       </c>
-      <c r="AQ36" s="76">
+      <c r="AQ36" s="67">
         <v>254</v>
       </c>
-      <c r="AR36" s="76" t="s">
+      <c r="AR36" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="AS36" s="76" t="s">
+      <c r="AS36" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="AT36" s="76" t="s">
+      <c r="AT36" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="AU36" s="76" t="s">
+      <c r="AU36" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="AV36" s="76" t="s">
+      <c r="AV36" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="AW36" s="77" t="s">
+      <c r="AW36" s="68" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3053,31 +3060,31 @@
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
-      <c r="AO37" s="75" t="s">
+      <c r="AO37" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="AP37" s="76">
+      <c r="AP37" s="67">
         <v>50</v>
       </c>
-      <c r="AQ37" s="76">
+      <c r="AQ37" s="67">
         <v>62</v>
       </c>
-      <c r="AR37" s="76" t="s">
+      <c r="AR37" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AS37" s="76" t="s">
+      <c r="AS37" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="AT37" s="76" t="s">
+      <c r="AT37" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="AU37" s="76" t="s">
+      <c r="AU37" s="67" t="s">
         <v>287</v>
       </c>
-      <c r="AV37" s="76" t="s">
+      <c r="AV37" s="67" t="s">
         <v>285</v>
       </c>
-      <c r="AW37" s="77" t="s">
+      <c r="AW37" s="68" t="s">
         <v>281</v>
       </c>
     </row>
@@ -3091,32 +3098,32 @@
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
-      <c r="AN38" s="90"/>
-      <c r="AO38" s="78" t="s">
+      <c r="AN38" s="81"/>
+      <c r="AO38" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="AP38" s="79">
+      <c r="AP38" s="70">
         <v>50</v>
       </c>
-      <c r="AQ38" s="79">
+      <c r="AQ38" s="70">
         <v>62</v>
       </c>
-      <c r="AR38" s="79" t="s">
+      <c r="AR38" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="AS38" s="79" t="s">
+      <c r="AS38" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="AT38" s="79" t="s">
+      <c r="AT38" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="AU38" s="79" t="s">
+      <c r="AU38" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="AV38" s="79" t="s">
+      <c r="AV38" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="AW38" s="80" t="s">
+      <c r="AW38" s="71" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3205,118 +3212,118 @@
       </c>
     </row>
     <row r="44" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AO44" s="87" t="s">
+      <c r="AO44" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="AP44" s="88" t="s">
+      <c r="AP44" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="AQ44" s="88" t="s">
+      <c r="AQ44" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="AR44" s="88" t="s">
+      <c r="AR44" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="AS44" s="88" t="s">
+      <c r="AS44" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="AT44" s="88" t="s">
+      <c r="AT44" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="AU44" s="88" t="s">
+      <c r="AU44" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="AV44" s="88" t="s">
+      <c r="AV44" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AW44" s="89" t="s">
+      <c r="AW44" s="80" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO45" s="81" t="s">
+      <c r="AO45" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="AP45" s="82">
+      <c r="AP45" s="73">
         <v>143</v>
       </c>
-      <c r="AQ45" s="82">
+      <c r="AQ45" s="73">
         <v>254</v>
       </c>
-      <c r="AR45" s="82" t="s">
+      <c r="AR45" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="AS45" s="82" t="s">
+      <c r="AS45" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="AT45" s="82" t="s">
+      <c r="AT45" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="AU45" s="82" t="s">
+      <c r="AU45" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="AV45" s="82" t="s">
+      <c r="AV45" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="AW45" s="83" t="s">
+      <c r="AW45" s="74" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO46" s="81" t="s">
+      <c r="AO46" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="AP46" s="82">
+      <c r="AP46" s="73">
         <v>50</v>
       </c>
-      <c r="AQ46" s="82">
+      <c r="AQ46" s="73">
         <v>62</v>
       </c>
-      <c r="AR46" s="82" t="s">
+      <c r="AR46" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="AS46" s="82" t="s">
+      <c r="AS46" s="73" t="s">
         <v>279</v>
       </c>
-      <c r="AT46" s="82" t="s">
+      <c r="AT46" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="AU46" s="82" t="s">
+      <c r="AU46" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="AV46" s="82" t="s">
+      <c r="AV46" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="AW46" s="83" t="s">
+      <c r="AW46" s="74" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AO47" s="84" t="s">
+      <c r="AO47" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="AP47" s="85">
+      <c r="AP47" s="76">
         <v>50</v>
       </c>
-      <c r="AQ47" s="85">
+      <c r="AQ47" s="76">
         <v>62</v>
       </c>
-      <c r="AR47" s="85" t="s">
+      <c r="AR47" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="AS47" s="85" t="s">
+      <c r="AS47" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="AT47" s="85" t="s">
+      <c r="AT47" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="AU47" s="85" t="s">
+      <c r="AU47" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="AV47" s="85" t="s">
+      <c r="AV47" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="AW47" s="86" t="s">
+      <c r="AW47" s="77" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3805,7 +3812,7 @@
       <c r="E111" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="K36:L38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K36:L38">
     <sortCondition ref="L36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3814,7 +3821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C11:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3964,7 +3971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3999,69 +4006,69 @@
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="66" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="66" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="66" t="s">
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="66" t="s">
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="68"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="87"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="63" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="63" t="s">
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="63" t="s">
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="65"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="90"/>
     </row>
     <row r="6" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -4674,62 +4681,62 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="69">
+      <c r="B15" s="82">
         <f>B14+C14+D14+E14</f>
         <v>579</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="82">
         <f>F14+G14+H14+I14</f>
         <v>585</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="69">
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="82">
         <f>J14+K14+L14+M14</f>
         <v>580</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="69">
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="82">
         <f>N14+O14+P14+Q14</f>
         <v>590</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="69">
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="82">
         <f>R14+S14+T14+U14</f>
         <v>571</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="71"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="84"/>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="R15:U15"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4737,11 +4744,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5183,7 +5190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView topLeftCell="K99" workbookViewId="0">
@@ -5197,23 +5204,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -5370,13 +5377,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="69">
+      <c r="B12" s="82">
         <f>B11+C11+D11+E11</f>
         <v>322</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/SUBNETEO REDES.xlsx
+++ b/SUBNETEO REDES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Universidad\Redes II\TERCER PARCIAL\Proyecto\PROYECTO-REDES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kattia Cecilia\Desktop\Redes\PROYECTO-REDES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,9 @@
     <sheet name="VLANS" sheetId="6" r:id="rId3"/>
     <sheet name="Honduras" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$A$35:$F$41</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="448">
   <si>
     <t>REDES:5</t>
   </si>
@@ -1263,6 +1266,114 @@
   </si>
   <si>
     <t xml:space="preserve">172.168.25.33 </t>
+  </si>
+  <si>
+    <t>Sub Red La Union</t>
+  </si>
+  <si>
+    <t>Sub Red MAXI PALI</t>
+  </si>
+  <si>
+    <t>172.168.32.96</t>
+  </si>
+  <si>
+    <t>172.168.32.192</t>
+  </si>
+  <si>
+    <t>172.168.32.64</t>
+  </si>
+  <si>
+    <t>172.168.32.160</t>
+  </si>
+  <si>
+    <t>172.168.32.32</t>
+  </si>
+  <si>
+    <t>172.168.32.128</t>
+  </si>
+  <si>
+    <t>172.168.32.33</t>
+  </si>
+  <si>
+    <t>172.168.32.1</t>
+  </si>
+  <si>
+    <t>172.168.32.65</t>
+  </si>
+  <si>
+    <t>172.168.32.97</t>
+  </si>
+  <si>
+    <t>172.168.32.129</t>
+  </si>
+  <si>
+    <t>172.168.32.161</t>
+  </si>
+  <si>
+    <t>172.168.32.193</t>
+  </si>
+  <si>
+    <t>172.168.32.30</t>
+  </si>
+  <si>
+    <t>172.168.32.31</t>
+  </si>
+  <si>
+    <t>172.168.32.62</t>
+  </si>
+  <si>
+    <t>172.168.32.94</t>
+  </si>
+  <si>
+    <t>172.168.32.126</t>
+  </si>
+  <si>
+    <t>172.168.32.190</t>
+  </si>
+  <si>
+    <t>172.168.32.222</t>
+  </si>
+  <si>
+    <t>172.168.32.63</t>
+  </si>
+  <si>
+    <t>172.168.32.95</t>
+  </si>
+  <si>
+    <t>172.168.32.127</t>
+  </si>
+  <si>
+    <t>172.168.32.159</t>
+  </si>
+  <si>
+    <t>172.168.32.191</t>
+  </si>
+  <si>
+    <t>172.168.32.223</t>
+  </si>
+  <si>
+    <t>172.168.32.206</t>
+  </si>
+  <si>
+    <t>172.168.32.207</t>
+  </si>
+  <si>
+    <t>Sub Red DESPENSA</t>
+  </si>
+  <si>
+    <t>Sub Red DESPENSA DON JUAN</t>
+  </si>
+  <si>
+    <t>Sub Red MAXI DESPENSA</t>
+  </si>
+  <si>
+    <t>ATENCION CLIENTE</t>
+  </si>
+  <si>
+    <t>Sub Red PAIZ</t>
+  </si>
+  <si>
+    <t>Sub Red WALMART</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,18 +1427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF993366"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,7 +1473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1551,11 +1650,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1595,15 +1725,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1632,28 +1756,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1669,6 +1771,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1676,56 +1799,75 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1737,46 +1879,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2067,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI47" workbookViewId="0">
-      <selection activeCell="AQ63" sqref="AQ63"/>
+    <sheetView tabSelected="1" topLeftCell="AM86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL73" sqref="AL73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,42 +2196,45 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" customWidth="1"/>
     <col min="22" max="22" width="17.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" customWidth="1"/>
     <col min="27" max="27" width="17.140625" customWidth="1"/>
     <col min="28" max="28" width="17.85546875" customWidth="1"/>
-    <col min="31" max="31" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="31" max="31" width="20.7109375" customWidth="1"/>
     <col min="32" max="32" width="16.5703125" customWidth="1"/>
     <col min="33" max="33" width="15.5703125" customWidth="1"/>
-    <col min="34" max="34" width="13" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" customWidth="1"/>
     <col min="35" max="35" width="9.42578125" customWidth="1"/>
     <col min="36" max="36" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" customWidth="1"/>
-    <col min="41" max="41" width="17.85546875" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="20.85546875" customWidth="1"/>
     <col min="42" max="42" width="17.140625" customWidth="1"/>
-    <col min="43" max="43" width="15.140625" customWidth="1"/>
-    <col min="44" max="44" width="13.42578125" customWidth="1"/>
+    <col min="43" max="43" width="16.42578125" customWidth="1"/>
+    <col min="44" max="44" width="14.42578125" customWidth="1"/>
     <col min="45" max="45" width="9.85546875" customWidth="1"/>
-    <col min="46" max="46" width="14.42578125" customWidth="1"/>
-    <col min="47" max="47" width="15.5703125" customWidth="1"/>
-    <col min="48" max="48" width="15.42578125" customWidth="1"/>
+    <col min="46" max="46" width="16.42578125" customWidth="1"/>
+    <col min="47" max="47" width="17.28515625" customWidth="1"/>
+    <col min="48" max="48" width="17" customWidth="1"/>
     <col min="49" max="49" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2297,210 +2417,210 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="35">
         <v>590</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="35">
         <v>2046</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="35">
         <v>585</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="35">
         <v>2046</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="38" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="35">
         <v>580</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="35">
         <v>2046</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="38" t="s">
         <v>97</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="35">
         <v>679</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="35">
         <v>2046</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="38" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="36">
         <v>571</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="36">
         <v>2046</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="39" t="s">
         <v>100</v>
       </c>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="30" t="s">
         <v>78</v>
       </c>
       <c r="L20" s="6"/>
@@ -2520,19 +2640,19 @@
       <c r="L21" s="14">
         <v>590</v>
       </c>
-      <c r="U21" s="32" t="s">
+      <c r="U21" s="30" t="s">
         <v>76</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="AE21" s="32" t="s">
+      <c r="AE21" s="30" t="s">
         <v>77</v>
       </c>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
-      <c r="AO21" s="32" t="s">
+      <c r="AO21" s="30" t="s">
         <v>148</v>
       </c>
       <c r="AP21" s="6"/>
@@ -2610,59 +2730,59 @@
       </c>
     </row>
     <row r="24" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="35" t="s">
+      <c r="J24" s="27"/>
+      <c r="K24" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="M24" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="P24" s="36" t="s">
+      <c r="P24" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="Q24" s="36" t="s">
+      <c r="Q24" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="R24" s="36" t="s">
+      <c r="R24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="S24" s="39" t="s">
+      <c r="S24" s="37" t="s">
         <v>40</v>
       </c>
       <c r="U24" t="s">
@@ -2691,682 +2811,802 @@
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="35">
         <v>153</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="35">
         <v>254</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="38" t="s">
         <v>241</v>
       </c>
       <c r="J25" s="6"/>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="35">
         <v>152</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="35">
         <v>254</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="O25" s="37" t="s">
+      <c r="O25" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="37" t="s">
+      <c r="P25" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="R25" s="37" t="s">
+      <c r="R25" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="S25" s="40" t="s">
+      <c r="S25" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="U25" s="35" t="s">
+      <c r="U25" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="V25" s="36" t="s">
+      <c r="V25" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="W25" s="36" t="s">
+      <c r="W25" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="X25" s="36" t="s">
+      <c r="X25" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="Y25" s="36" t="s">
+      <c r="Y25" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="Z25" s="36" t="s">
+      <c r="Z25" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AA25" s="36" t="s">
+      <c r="AA25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AB25" s="36" t="s">
+      <c r="AB25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AC25" s="39" t="s">
+      <c r="AC25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AE25" s="35" t="s">
+      <c r="AE25" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AF25" s="36" t="s">
+      <c r="AF25" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="AG25" s="36" t="s">
+      <c r="AG25" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AH25" s="36" t="s">
+      <c r="AH25" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="AI25" s="36" t="s">
+      <c r="AI25" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AJ25" s="36" t="s">
+      <c r="AJ25" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AK25" s="36" t="s">
+      <c r="AK25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AL25" s="36" t="s">
+      <c r="AL25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AM25" s="39" t="s">
+      <c r="AM25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AO25" s="35" t="s">
+      <c r="AO25" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AP25" s="36" t="s">
+      <c r="AP25" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="AQ25" s="36" t="s">
+      <c r="AQ25" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AR25" s="36" t="s">
+      <c r="AR25" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="AS25" s="36" t="s">
+      <c r="AS25" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AT25" s="36" t="s">
+      <c r="AT25" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AU25" s="36" t="s">
+      <c r="AU25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AV25" s="36" t="s">
+      <c r="AV25" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AW25" s="39" t="s">
+      <c r="AW25" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="35">
         <v>152</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="35">
         <v>254</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="I26" s="40" t="s">
+      <c r="I26" s="38" t="s">
         <v>242</v>
       </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="35">
         <v>152</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="35">
         <v>254</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="O26" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="37" t="s">
+      <c r="P26" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Q26" s="37" t="s">
+      <c r="Q26" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="R26" s="37" t="s">
+      <c r="R26" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="S26" s="40" t="s">
+      <c r="S26" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U26" s="33" t="s">
+      <c r="U26" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="V26" s="37">
+      <c r="V26" s="35">
         <v>152</v>
       </c>
-      <c r="W26" s="37">
+      <c r="W26" s="35">
         <v>254</v>
       </c>
-      <c r="X26" s="37" t="s">
+      <c r="X26" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="Y26" s="37" t="s">
+      <c r="Y26" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Z26" s="37" t="s">
+      <c r="Z26" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AA26" s="37" t="s">
+      <c r="AA26" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AB26" s="37" t="s">
+      <c r="AB26" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AC26" s="37" t="s">
+      <c r="AC26" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AE26" s="33" t="s">
+      <c r="AE26" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="AF26" s="37">
+      <c r="AF26" s="35">
         <v>152</v>
       </c>
-      <c r="AG26" s="37">
+      <c r="AG26" s="35">
         <v>254</v>
       </c>
-      <c r="AH26" s="37" t="s">
+      <c r="AH26" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AI26" s="37" t="s">
+      <c r="AI26" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AJ26" s="37" t="s">
+      <c r="AJ26" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="AK26" s="37" t="s">
+      <c r="AK26" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="AL26" s="37" t="s">
+      <c r="AL26" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="AM26" s="37" t="s">
+      <c r="AM26" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AO26" s="33" t="s">
+      <c r="AO26" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AP26" s="37">
+      <c r="AP26" s="35">
         <v>243</v>
       </c>
-      <c r="AQ26" s="37">
+      <c r="AQ26" s="35">
         <v>254</v>
       </c>
-      <c r="AR26" s="37" t="s">
+      <c r="AR26" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="AS26" s="37" t="s">
+      <c r="AS26" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="AT26" s="37" t="s">
+      <c r="AT26" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="AU26" s="37" t="s">
+      <c r="AU26" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="AV26" s="37" t="s">
+      <c r="AV26" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="AW26" s="37" t="s">
+      <c r="AW26" s="35" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="35">
         <v>138</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="35">
         <v>254</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="I27" s="40" t="s">
+      <c r="I27" s="38" t="s">
         <v>243</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="35">
         <v>143</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="35">
         <v>254</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="N27" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="O27" s="37" t="s">
+      <c r="O27" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="P27" s="37" t="s">
+      <c r="P27" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="37" t="s">
+      <c r="Q27" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="S27" s="40" t="s">
+      <c r="S27" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="U27" s="33" t="s">
+      <c r="U27" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="V27" s="37">
+      <c r="V27" s="35">
         <v>152</v>
       </c>
-      <c r="W27" s="37">
+      <c r="W27" s="35">
         <v>254</v>
       </c>
-      <c r="X27" s="37" t="s">
+      <c r="X27" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="Y27" s="37" t="s">
+      <c r="Y27" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Z27" s="37" t="s">
+      <c r="Z27" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AA27" s="37" t="s">
+      <c r="AA27" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="AB27" s="37" t="s">
+      <c r="AB27" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AC27" s="37" t="s">
+      <c r="AC27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="AE27" s="33" t="s">
+      <c r="AE27" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AF27" s="37">
+      <c r="AF27" s="35">
         <v>152</v>
       </c>
-      <c r="AG27" s="37">
+      <c r="AG27" s="35">
         <v>254</v>
       </c>
-      <c r="AH27" s="37" t="s">
+      <c r="AH27" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AI27" s="37" t="s">
+      <c r="AI27" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AJ27" s="37" t="s">
+      <c r="AJ27" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AK27" s="37" t="s">
+      <c r="AK27" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="AL27" s="37" t="s">
+      <c r="AL27" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="AM27" s="37" t="s">
+      <c r="AM27" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AO27" s="33" t="s">
+      <c r="AO27" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="AP27" s="37">
+      <c r="AP27" s="35">
         <v>152</v>
       </c>
-      <c r="AQ27" s="37">
+      <c r="AQ27" s="35">
         <v>254</v>
       </c>
-      <c r="AR27" s="37" t="s">
+      <c r="AR27" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AS27" s="37" t="s">
+      <c r="AS27" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AT27" s="37" t="s">
+      <c r="AT27" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="AU27" s="37" t="s">
+      <c r="AU27" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AV27" s="37" t="s">
+      <c r="AV27" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="AW27" s="37" t="s">
+      <c r="AW27" s="35" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="36">
         <v>138</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="36">
         <v>254</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G28" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="I28" s="41" t="s">
+      <c r="I28" s="39" t="s">
         <v>244</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>143</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="36">
         <v>254</v>
       </c>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="38" t="s">
+      <c r="P28" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="Q28" s="38" t="s">
+      <c r="Q28" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="R28" s="38" t="s">
+      <c r="R28" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="S28" s="41" t="s">
+      <c r="S28" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="U28" s="33" t="s">
+      <c r="U28" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="37">
+      <c r="V28" s="35">
         <v>143</v>
       </c>
-      <c r="W28" s="37">
+      <c r="W28" s="35">
         <v>254</v>
       </c>
-      <c r="X28" s="37" t="s">
+      <c r="X28" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="Y28" s="37" t="s">
+      <c r="Y28" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Z28" s="37" t="s">
+      <c r="Z28" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AA28" s="37" t="s">
+      <c r="AA28" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AB28" s="37" t="s">
+      <c r="AB28" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AC28" s="37" t="s">
+      <c r="AC28" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="AE28" s="33" t="s">
+      <c r="AE28" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="AF28" s="37">
+      <c r="AF28" s="35">
         <v>138</v>
       </c>
-      <c r="AG28" s="37">
+      <c r="AG28" s="35">
         <v>254</v>
       </c>
-      <c r="AH28" s="37" t="s">
+      <c r="AH28" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AI28" s="37" t="s">
+      <c r="AI28" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AJ28" s="37" t="s">
+      <c r="AJ28" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="AK28" s="37" t="s">
+      <c r="AK28" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="AL28" s="37" t="s">
+      <c r="AL28" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="AM28" s="37" t="s">
+      <c r="AM28" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="AO28" s="33" t="s">
+      <c r="AO28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AP28" s="37">
+      <c r="AP28" s="35">
         <v>146</v>
       </c>
-      <c r="AQ28" s="37">
+      <c r="AQ28" s="35">
         <v>510</v>
       </c>
-      <c r="AR28" s="37" t="s">
+      <c r="AR28" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AS28" s="37" t="s">
+      <c r="AS28" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AT28" s="37" t="s">
+      <c r="AT28" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="AU28" s="37" t="s">
+      <c r="AU28" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="AV28" s="37" t="s">
+      <c r="AV28" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="AW28" s="37" t="s">
+      <c r="AW28" s="35" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="U29" s="34" t="s">
+      <c r="U29" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="V29" s="38">
+      <c r="V29" s="36">
         <v>138</v>
       </c>
-      <c r="W29" s="38">
+      <c r="W29" s="36">
         <v>254</v>
       </c>
-      <c r="X29" s="38" t="s">
+      <c r="X29" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="Y29" s="38" t="s">
+      <c r="Y29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="Z29" s="38" t="s">
+      <c r="Z29" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="AA29" s="38" t="s">
+      <c r="AA29" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="AB29" s="38" t="s">
+      <c r="AB29" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="AC29" s="38" t="s">
+      <c r="AC29" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AE29" s="34" t="s">
+      <c r="AE29" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="AF29" s="38">
+      <c r="AF29" s="36">
         <v>138</v>
       </c>
-      <c r="AG29" s="38">
+      <c r="AG29" s="36">
         <v>254</v>
       </c>
-      <c r="AH29" s="38" t="s">
+      <c r="AH29" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="AI29" s="38" t="s">
+      <c r="AI29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="AJ29" s="38" t="s">
+      <c r="AJ29" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="AK29" s="38" t="s">
+      <c r="AK29" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="AL29" s="38" t="s">
+      <c r="AL29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="AM29" s="38" t="s">
+      <c r="AM29" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="AO29" s="34" t="s">
+      <c r="AO29" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="AP29" s="38">
+      <c r="AP29" s="36">
         <v>138</v>
       </c>
-      <c r="AQ29" s="38">
+      <c r="AQ29" s="36">
         <v>254</v>
       </c>
-      <c r="AR29" s="38" t="s">
+      <c r="AR29" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="AS29" s="38" t="s">
+      <c r="AS29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="AT29" s="38" t="s">
+      <c r="AT29" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="AU29" s="38" t="s">
+      <c r="AU29" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AV29" s="38" t="s">
+      <c r="AV29" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="AW29" s="38" t="s">
+      <c r="AW29" s="36" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="K30" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="80" t="s">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="14">
+        <v>143</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" s="14">
+        <v>152</v>
+      </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="U31" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="52"/>
+      <c r="AE31" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="B32" s="14"/>
-      <c r="AN32" s="62"/>
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>115</v>
+      </c>
+      <c r="L32" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" t="s">
+        <v>114</v>
+      </c>
+      <c r="V32" s="14">
+        <v>152</v>
+      </c>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AE32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF32" s="14">
+        <v>152</v>
+      </c>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
       <c r="AO32" t="s">
         <v>114</v>
       </c>
       <c r="AP32" s="14">
         <v>243</v>
       </c>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AN33" s="62"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+    </row>
+    <row r="33" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" t="s">
+        <v>116</v>
+      </c>
+      <c r="U33" t="s">
+        <v>115</v>
+      </c>
+      <c r="V33" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN33" s="52"/>
       <c r="AO33" t="s">
         <v>115</v>
       </c>
@@ -3375,7 +3615,79 @@
       </c>
     </row>
     <row r="34" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AN34" s="62"/>
+      <c r="A34" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="R34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="U34" t="s">
+        <v>103</v>
+      </c>
+      <c r="V34" t="s">
+        <v>117</v>
+      </c>
+      <c r="W34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN34" s="52"/>
       <c r="AO34" t="s">
         <v>103</v>
       </c>
@@ -3387,226 +3699,982 @@
       </c>
     </row>
     <row r="35" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
-      <c r="AN35" s="62"/>
-      <c r="AO35" s="63" t="s">
+      <c r="A35" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="72">
+        <v>23</v>
+      </c>
+      <c r="C35" s="72">
+        <v>30</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="H35" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="K35" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" s="75">
+        <v>24</v>
+      </c>
+      <c r="M35" s="72">
+        <v>30</v>
+      </c>
+      <c r="N35" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O35" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="P35" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q35" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="R35" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="S35" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="U35" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AP35" s="64" t="s">
+      <c r="V35" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AQ35" s="64" t="s">
+      <c r="W35" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="AR35" s="64" t="s">
+      <c r="X35" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="AS35" s="64" t="s">
+      <c r="Y35" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="AT35" s="64" t="s">
+      <c r="Z35" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="AU35" s="64" t="s">
+      <c r="AA35" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AV35" s="64" t="s">
+      <c r="AB35" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AW35" s="65" t="s">
+      <c r="AC35" s="55" t="s">
         <v>40</v>
       </c>
+      <c r="AE35" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF35" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG35" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH35" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI35" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ35" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK35" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM35" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN35" s="52"/>
+      <c r="AO35" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP35" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ35" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR35" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS35" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT35" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU35" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV35" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW35" s="55" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="66" t="s">
+      <c r="A36" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="75">
+        <v>22</v>
+      </c>
+      <c r="C36" s="75">
+        <v>30</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="I36" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="K36" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" s="75">
+        <v>24</v>
+      </c>
+      <c r="M36" s="75">
+        <v>30</v>
+      </c>
+      <c r="N36" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P36" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q36" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="R36" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="S36" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="U36" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="V36" s="72">
+        <v>24</v>
+      </c>
+      <c r="W36" s="72">
+        <v>30</v>
+      </c>
+      <c r="X36" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y36" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z36" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA36" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB36" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC36" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE36" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF36" s="72">
+        <v>24</v>
+      </c>
+      <c r="AG36" s="72">
+        <v>30</v>
+      </c>
+      <c r="AH36" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI36" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ36" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK36" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL36" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM36" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="AN36" s="52"/>
+      <c r="AO36" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="AP36" s="67">
+      <c r="AP36" s="57">
         <v>143</v>
       </c>
-      <c r="AQ36" s="67">
+      <c r="AQ36" s="57">
         <v>254</v>
       </c>
-      <c r="AR36" s="67" t="s">
+      <c r="AR36" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="AS36" s="67" t="s">
+      <c r="AS36" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="AT36" s="67" t="s">
+      <c r="AT36" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="AU36" s="67" t="s">
+      <c r="AU36" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="AV36" s="67" t="s">
+      <c r="AV36" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="AW36" s="68" t="s">
+      <c r="AW36" s="58" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="AO37" s="66" t="s">
+      <c r="A37" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="75">
+        <v>21</v>
+      </c>
+      <c r="C37" s="75">
+        <v>30</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="G37" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="I37" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="K37" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" s="75">
+        <v>23</v>
+      </c>
+      <c r="M37" s="75">
+        <v>30</v>
+      </c>
+      <c r="N37" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P37" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q37" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="R37" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="S37" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="U37" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="V37" s="75">
+        <v>24</v>
+      </c>
+      <c r="W37" s="75">
+        <v>30</v>
+      </c>
+      <c r="X37" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y37" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z37" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA37" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB37" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC37" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE37" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF37" s="75">
+        <v>24</v>
+      </c>
+      <c r="AG37" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH37" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI37" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ37" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK37" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL37" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM37" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO37" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="AP37" s="67">
+      <c r="AP37" s="57">
         <v>50</v>
       </c>
-      <c r="AQ37" s="67">
+      <c r="AQ37" s="57">
         <v>62</v>
       </c>
-      <c r="AR37" s="67" t="s">
+      <c r="AR37" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="AS37" s="67" t="s">
+      <c r="AS37" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="AT37" s="67" t="s">
+      <c r="AT37" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="AU37" s="67" t="s">
+      <c r="AU37" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="AV37" s="67" t="s">
+      <c r="AV37" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="AW37" s="68" t="s">
+      <c r="AW37" s="58" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="AN38" s="75"/>
-      <c r="AO38" s="69" t="s">
+      <c r="A38" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="75">
+        <v>20</v>
+      </c>
+      <c r="C38" s="75">
+        <v>30</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="G38" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="I38" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="K38" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="L38" s="75">
+        <v>21</v>
+      </c>
+      <c r="M38" s="75">
+        <v>30</v>
+      </c>
+      <c r="N38" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P38" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q38" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="R38" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="S38" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="U38" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="V38" s="75">
+        <v>23</v>
+      </c>
+      <c r="W38" s="75">
+        <v>30</v>
+      </c>
+      <c r="X38" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y38" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z38" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA38" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB38" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC38" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE38" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF38" s="75">
+        <v>23</v>
+      </c>
+      <c r="AG38" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH38" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI38" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ38" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="AK38" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL38" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM38" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="AN38" s="65"/>
+      <c r="AO38" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="AP38" s="70">
+      <c r="AP38" s="60">
         <v>50</v>
       </c>
-      <c r="AQ38" s="70">
+      <c r="AQ38" s="60">
         <v>62</v>
       </c>
-      <c r="AR38" s="70" t="s">
+      <c r="AR38" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="AS38" s="70" t="s">
+      <c r="AS38" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="AT38" s="70" t="s">
+      <c r="AT38" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="AU38" s="70" t="s">
+      <c r="AU38" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="AV38" s="70" t="s">
+      <c r="AV38" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="AW38" s="71" t="s">
+      <c r="AW38" s="61" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
+      <c r="A39" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="75">
+        <v>20</v>
+      </c>
+      <c r="C39" s="75">
+        <v>30</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="K39" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="75">
+        <v>20</v>
+      </c>
+      <c r="M39" s="75">
+        <v>30</v>
+      </c>
+      <c r="N39" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O39" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P39" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q39" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="R39" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="S39" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="U39" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="V39" s="75">
+        <v>21</v>
+      </c>
+      <c r="W39" s="75">
+        <v>30</v>
+      </c>
+      <c r="X39" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y39" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z39" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA39" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB39" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC39" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE39" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF39" s="75">
+        <v>21</v>
+      </c>
+      <c r="AG39" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH39" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI39" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ39" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK39" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL39" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM39" s="102" t="s">
+        <v>436</v>
+      </c>
       <c r="AO39" s="6"/>
-      <c r="AP39" s="29"/>
-      <c r="AQ39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29"/>
-      <c r="AU39" s="29"/>
-      <c r="AV39" s="29"/>
-      <c r="AW39" s="29"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="28"/>
+      <c r="AW39" s="28"/>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="AO40" s="60" t="s">
+      <c r="A40" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="75">
+        <v>19</v>
+      </c>
+      <c r="C40" s="75">
+        <v>30</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="H40" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="I40" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="K40" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" s="75">
+        <v>20</v>
+      </c>
+      <c r="M40" s="75">
+        <v>30</v>
+      </c>
+      <c r="N40" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O40" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P40" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q40" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="R40" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="S40" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="U40" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="V40" s="75">
+        <v>20</v>
+      </c>
+      <c r="W40" s="75">
+        <v>30</v>
+      </c>
+      <c r="X40" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y40" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z40" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA40" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB40" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC40" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE40" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF40" s="75">
+        <v>20</v>
+      </c>
+      <c r="AG40" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH40" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI40" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ40" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK40" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL40" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM40" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="AO40" s="50" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
+    <row r="41" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="78">
+        <v>18</v>
+      </c>
+      <c r="C41" s="78">
+        <v>30</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="G41" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="I41" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="K41" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="L41" s="78">
+        <v>20</v>
+      </c>
+      <c r="M41" s="78">
+        <v>30</v>
+      </c>
+      <c r="N41" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="O41" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="P41" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q41" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="R41" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="S41" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="U41" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="V41" s="75">
+        <v>20</v>
+      </c>
+      <c r="W41" s="75">
+        <v>30</v>
+      </c>
+      <c r="X41" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y41" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z41" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA41" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB41" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC41" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE41" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF41" s="75">
+        <v>20</v>
+      </c>
+      <c r="AG41" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH41" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI41" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ41" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="AK41" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL41" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM41" s="102" t="s">
+        <v>438</v>
+      </c>
       <c r="AO41" t="s">
         <v>114</v>
       </c>
       <c r="AP41" s="14">
         <v>143</v>
       </c>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="62"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
+      <c r="AT41" s="52"/>
+      <c r="AU41" s="52"/>
+      <c r="AV41" s="52"/>
+      <c r="AW41" s="52"/>
     </row>
     <row r="42" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="U42" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="V42" s="78">
+        <v>20</v>
+      </c>
+      <c r="W42" s="78">
+        <v>30</v>
+      </c>
+      <c r="X42" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y42" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z42" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA42" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB42" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC42" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE42" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF42" s="78">
+        <v>20</v>
+      </c>
+      <c r="AG42" s="78">
+        <v>30</v>
+      </c>
+      <c r="AH42" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI42" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ42" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK42" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL42" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM42" s="103" t="s">
+        <v>439</v>
+      </c>
       <c r="AO42" t="s">
         <v>115</v>
       </c>
@@ -3615,6 +4683,41 @@
       </c>
     </row>
     <row r="43" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
       <c r="AO43" t="s">
         <v>103</v>
       </c>
@@ -3626,302 +4729,1136 @@
       </c>
     </row>
     <row r="44" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AO44" s="72" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AO44" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AP44" s="73" t="s">
+      <c r="AP44" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="AQ44" s="73" t="s">
+      <c r="AQ44" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="AR44" s="73" t="s">
+      <c r="AR44" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="AS44" s="73" t="s">
+      <c r="AS44" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="AT44" s="73" t="s">
+      <c r="AT44" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="AU44" s="73" t="s">
+      <c r="AU44" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="AV44" s="73" t="s">
+      <c r="AV44" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AW44" s="74" t="s">
+      <c r="AW44" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO45" s="76" t="s">
+      <c r="A45" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="K45" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="AO45" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AP45" s="77">
+      <c r="AP45" s="67">
         <v>23</v>
       </c>
-      <c r="AQ45" s="77">
+      <c r="AQ45" s="67">
         <v>30</v>
       </c>
-      <c r="AR45" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS45" s="77" t="s">
+      <c r="AR45" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS45" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AT45" s="77" t="s">
+      <c r="AT45" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="AU45" s="77" t="s">
+      <c r="AU45" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="AV45" s="77" t="s">
+      <c r="AV45" s="67" t="s">
         <v>292</v>
       </c>
-      <c r="AW45" s="77" t="s">
+      <c r="AW45" s="67" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO46" s="76" t="s">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="14">
+        <v>152</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="K46" t="s">
+        <v>114</v>
+      </c>
+      <c r="L46" s="14">
+        <v>152</v>
+      </c>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="U46" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AE46" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH46" s="52"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="52"/>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AO46" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="AP46" s="77">
+      <c r="AP46" s="67">
         <v>22</v>
       </c>
-      <c r="AQ46" s="77">
+      <c r="AQ46" s="67">
         <v>30</v>
       </c>
-      <c r="AR46" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS46" s="77" t="s">
+      <c r="AR46" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS46" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AT46" s="77" t="s">
+      <c r="AT46" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="AU46" s="77" t="s">
+      <c r="AU46" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="AV46" s="77" t="s">
+      <c r="AV46" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="AW46" s="77" t="s">
+      <c r="AW46" s="67" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO47" s="76" t="s">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="K47" t="s">
+        <v>115</v>
+      </c>
+      <c r="L47" t="s">
+        <v>75</v>
+      </c>
+      <c r="U47" t="s">
+        <v>114</v>
+      </c>
+      <c r="V47" s="14">
+        <v>152</v>
+      </c>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AE47" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF47" s="14">
+        <v>152</v>
+      </c>
+      <c r="AH47" s="52"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AO47" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="AP47" s="77">
+      <c r="AP47" s="67">
         <v>21</v>
       </c>
-      <c r="AQ47" s="77">
+      <c r="AQ47" s="67">
         <v>30</v>
       </c>
-      <c r="AR47" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS47" s="77" t="s">
+      <c r="AR47" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS47" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AT47" s="77" t="s">
+      <c r="AT47" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="AU47" s="77" t="s">
+      <c r="AU47" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="AV47" s="77" t="s">
+      <c r="AV47" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="AW47" s="77" t="s">
+      <c r="AW47" s="67" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="AO48" s="76" t="s">
+    <row r="48" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="28"/>
+      <c r="K48" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" t="s">
+        <v>116</v>
+      </c>
+      <c r="U48" t="s">
+        <v>115</v>
+      </c>
+      <c r="V48" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO48" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="AP48" s="77">
+      <c r="AP48" s="67">
         <v>20</v>
       </c>
-      <c r="AQ48" s="77">
+      <c r="AQ48" s="67">
         <v>30</v>
       </c>
-      <c r="AR48" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS48" s="77" t="s">
+      <c r="AR48" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS48" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AT48" s="77" t="s">
+      <c r="AT48" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="AU48" s="77" t="s">
+      <c r="AU48" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="AV48" s="77" t="s">
+      <c r="AV48" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="AW48" s="77" t="s">
+      <c r="AW48" s="67" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AO49" s="76" t="s">
+    <row r="49" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N49" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="O49" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P49" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q49" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="R49" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S49" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s">
+        <v>103</v>
+      </c>
+      <c r="V49" t="s">
+        <v>117</v>
+      </c>
+      <c r="W49" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO49" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="AP49" s="77">
+      <c r="AP49" s="67">
         <v>20</v>
       </c>
-      <c r="AQ49" s="77">
+      <c r="AQ49" s="67">
         <v>30</v>
       </c>
-      <c r="AR49" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS49" s="77" t="s">
+      <c r="AR49" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS49" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AT49" s="77" t="s">
+      <c r="AT49" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="AU49" s="77" t="s">
+      <c r="AU49" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="AV49" s="77" t="s">
+      <c r="AV49" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="AW49" s="77" t="s">
+      <c r="AW49" s="67" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AO50" s="76" t="s">
+    <row r="50" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="AP50" s="77">
+      <c r="B50" s="72">
+        <v>24</v>
+      </c>
+      <c r="C50" s="72">
+        <v>30</v>
+      </c>
+      <c r="D50" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="F50" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="H50" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="I50" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="K50" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="L50" s="72">
+        <v>24</v>
+      </c>
+      <c r="M50" s="72">
+        <v>30</v>
+      </c>
+      <c r="N50" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O50" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="P50" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q50" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="R50" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="S50" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="U50" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="V50" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="W50" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="X50" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y50" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z50" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA50" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB50" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC50" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE50" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF50" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG50" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH50" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI50" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ50" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK50" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL50" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM50" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO50" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP50" s="67">
         <v>19</v>
       </c>
-      <c r="AQ50" s="77">
+      <c r="AQ50" s="67">
         <v>30</v>
       </c>
-      <c r="AR50" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS50" s="77" t="s">
+      <c r="AR50" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS50" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="AT50" s="77" t="s">
+      <c r="AT50" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="AU50" s="77" t="s">
+      <c r="AU50" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="AV50" s="77" t="s">
+      <c r="AV50" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="AW50" s="77" t="s">
+      <c r="AW50" s="67" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="AO51" s="78" t="s">
+      <c r="A51" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="AP51" s="79">
+      <c r="B51" s="75">
+        <v>24</v>
+      </c>
+      <c r="C51" s="75">
+        <v>30</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H51" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="I51" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="K51" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" s="75">
+        <v>24</v>
+      </c>
+      <c r="M51" s="75">
+        <v>30</v>
+      </c>
+      <c r="N51" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O51" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P51" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q51" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="R51" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="S51" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="U51" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="V51" s="72">
+        <v>24</v>
+      </c>
+      <c r="W51" s="72">
+        <v>30</v>
+      </c>
+      <c r="X51" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y51" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z51" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA51" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB51" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC51" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE51" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF51" s="72">
+        <v>24</v>
+      </c>
+      <c r="AG51" s="72">
+        <v>30</v>
+      </c>
+      <c r="AH51" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI51" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ51" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK51" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL51" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM51" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO51" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP51" s="69">
         <v>18</v>
       </c>
-      <c r="AQ51" s="79">
+      <c r="AQ51" s="69">
         <v>30</v>
       </c>
-      <c r="AR51" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS51" s="79" t="s">
+      <c r="AR51" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS51" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="AT51" s="79" t="s">
+      <c r="AT51" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="AU51" s="79" t="s">
+      <c r="AU51" s="69" t="s">
         <v>305</v>
       </c>
-      <c r="AV51" s="79" t="s">
+      <c r="AV51" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="AW51" s="79" t="s">
+      <c r="AW51" s="69" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
+      <c r="A52" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B52" s="75">
+        <v>23</v>
+      </c>
+      <c r="C52" s="75">
+        <v>30</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="I52" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="L52" s="75">
+        <v>23</v>
+      </c>
+      <c r="M52" s="75">
+        <v>30</v>
+      </c>
+      <c r="N52" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P52" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q52" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="R52" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="S52" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="U52" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="V52" s="75">
+        <v>24</v>
+      </c>
+      <c r="W52" s="75">
+        <v>30</v>
+      </c>
+      <c r="X52" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y52" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z52" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA52" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB52" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC52" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE52" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF52" s="75">
+        <v>24</v>
+      </c>
+      <c r="AG52" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH52" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI52" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ52" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK52" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL52" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM52" s="76" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="AO53" s="108" t="s">
+      <c r="A53" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="75">
+        <v>21</v>
+      </c>
+      <c r="C53" s="75">
+        <v>30</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F53" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="H53" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="I53" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="L53" s="75">
+        <v>21</v>
+      </c>
+      <c r="M53" s="75">
+        <v>30</v>
+      </c>
+      <c r="N53" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O53" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P53" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q53" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="R53" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="S53" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="U53" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="V53" s="75">
+        <v>23</v>
+      </c>
+      <c r="W53" s="75">
+        <v>30</v>
+      </c>
+      <c r="X53" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y53" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z53" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA53" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB53" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC53" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE53" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF53" s="75">
+        <v>23</v>
+      </c>
+      <c r="AG53" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH53" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI53" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ53" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="AK53" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL53" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM53" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="AO53" s="89" t="s">
         <v>395</v>
       </c>
-      <c r="AR53" s="62"/>
-      <c r="AS53" s="62"/>
-      <c r="AT53" s="62"/>
-      <c r="AU53" s="62"/>
-      <c r="AV53" s="62"/>
-      <c r="AW53" s="62"/>
+      <c r="AR53" s="52"/>
+      <c r="AS53" s="52"/>
+      <c r="AT53" s="52"/>
+      <c r="AU53" s="52"/>
+      <c r="AV53" s="52"/>
+      <c r="AW53" s="52"/>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="A54" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="75">
+        <v>20</v>
+      </c>
+      <c r="C54" s="75">
+        <v>30</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="H54" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="I54" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" s="75">
+        <v>20</v>
+      </c>
+      <c r="M54" s="75">
+        <v>30</v>
+      </c>
+      <c r="N54" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O54" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P54" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q54" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="R54" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="S54" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="U54" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="V54" s="75">
+        <v>21</v>
+      </c>
+      <c r="W54" s="75">
+        <v>30</v>
+      </c>
+      <c r="X54" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y54" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z54" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA54" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB54" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC54" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE54" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF54" s="75">
+        <v>21</v>
+      </c>
+      <c r="AG54" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH54" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI54" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ54" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK54" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL54" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM54" s="102" t="s">
+        <v>436</v>
+      </c>
       <c r="AO54" t="s">
         <v>114</v>
       </c>
       <c r="AP54" s="14">
         <v>42</v>
       </c>
-      <c r="AR54" s="62"/>
-      <c r="AS54" s="62"/>
-      <c r="AT54" s="62"/>
-      <c r="AU54" s="62"/>
-      <c r="AV54" s="62"/>
-      <c r="AW54" s="62"/>
+      <c r="AR54" s="52"/>
+      <c r="AS54" s="52"/>
+      <c r="AT54" s="52"/>
+      <c r="AU54" s="52"/>
+      <c r="AV54" s="52"/>
+      <c r="AW54" s="52"/>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="A55" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="75">
+        <v>20</v>
+      </c>
+      <c r="C55" s="75">
+        <v>30</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="G55" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="H55" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="I55" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="K55" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="L55" s="75">
+        <v>20</v>
+      </c>
+      <c r="M55" s="75">
+        <v>30</v>
+      </c>
+      <c r="N55" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O55" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P55" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q55" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="R55" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="S55" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="U55" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="V55" s="75">
+        <v>20</v>
+      </c>
+      <c r="W55" s="75">
+        <v>30</v>
+      </c>
+      <c r="X55" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y55" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z55" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA55" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB55" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC55" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE55" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF55" s="75">
+        <v>20</v>
+      </c>
+      <c r="AG55" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH55" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI55" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ55" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK55" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL55" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM55" s="102" t="s">
+        <v>437</v>
+      </c>
       <c r="AO55" t="s">
         <v>115</v>
       </c>
@@ -3930,15 +5867,114 @@
       </c>
     </row>
     <row r="56" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="A56" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="78">
+        <v>20</v>
+      </c>
+      <c r="C56" s="78">
+        <v>30</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="F56" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="I56" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" s="77" t="s">
+        <v>445</v>
+      </c>
+      <c r="L56" s="78">
+        <v>20</v>
+      </c>
+      <c r="M56" s="78">
+        <v>30</v>
+      </c>
+      <c r="N56" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="O56" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="P56" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q56" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="R56" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="S56" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="U56" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="V56" s="75">
+        <v>20</v>
+      </c>
+      <c r="W56" s="75">
+        <v>30</v>
+      </c>
+      <c r="X56" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y56" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z56" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA56" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB56" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC56" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE56" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF56" s="75">
+        <v>20</v>
+      </c>
+      <c r="AG56" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH56" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI56" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ56" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="AK56" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL56" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM56" s="102" t="s">
+        <v>438</v>
+      </c>
       <c r="AO56" t="s">
         <v>103</v>
       </c>
@@ -3950,205 +5986,503 @@
       </c>
     </row>
     <row r="57" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="AO57" s="105" t="s">
+      <c r="U57" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="V57" s="78">
+        <v>20</v>
+      </c>
+      <c r="W57" s="78">
+        <v>30</v>
+      </c>
+      <c r="X57" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y57" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z57" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA57" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB57" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC57" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE57" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF57" s="78">
+        <v>20</v>
+      </c>
+      <c r="AG57" s="78">
+        <v>30</v>
+      </c>
+      <c r="AH57" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI57" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ57" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK57" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL57" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM57" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="AO57" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="AP57" s="106" t="s">
+      <c r="AP57" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="AQ57" s="106" t="s">
+      <c r="AQ57" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="AR57" s="106" t="s">
+      <c r="AR57" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="AS57" s="106" t="s">
+      <c r="AS57" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="AT57" s="106" t="s">
+      <c r="AT57" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="AU57" s="106" t="s">
+      <c r="AU57" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="AV57" s="106" t="s">
+      <c r="AV57" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AW57" s="107" t="s">
+      <c r="AW57" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="AO58" s="99" t="s">
+      <c r="AO58" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="AP58" s="100">
+      <c r="AP58" s="81">
         <v>14</v>
       </c>
-      <c r="AQ58" s="100">
+      <c r="AQ58" s="81">
         <v>14</v>
       </c>
-      <c r="AR58" s="100" t="s">
+      <c r="AR58" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS58" s="81" t="s">
+        <v>398</v>
+      </c>
+      <c r="AT58" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="AS58" s="100" t="s">
+      <c r="AU58" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="AV58" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="AW58" s="82" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A59" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="K59" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="AO59" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP59" s="81">
+        <v>14</v>
+      </c>
+      <c r="AQ59" s="81">
+        <v>14</v>
+      </c>
+      <c r="AR59" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS59" s="81" t="s">
         <v>398</v>
       </c>
-      <c r="AT58" s="100" t="s">
+      <c r="AT59" s="81" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU59" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="AV59" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="AW59" s="82" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="14">
+        <v>138</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="K60" t="s">
+        <v>114</v>
+      </c>
+      <c r="L60" s="14">
+        <v>143</v>
+      </c>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="U60" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+      <c r="AC60" s="52"/>
+      <c r="AE60" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="AH60" s="52"/>
+      <c r="AI60" s="52"/>
+      <c r="AJ60" s="52"/>
+      <c r="AK60" s="52"/>
+      <c r="AL60" s="52"/>
+      <c r="AM60" s="52"/>
+      <c r="AO60" s="83" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP60" s="84">
+        <v>14</v>
+      </c>
+      <c r="AQ60" s="84">
+        <v>14</v>
+      </c>
+      <c r="AR60" s="84" t="s">
         <v>375</v>
       </c>
-      <c r="AU58" s="100" t="s">
-        <v>409</v>
-      </c>
-      <c r="AV58" s="100" t="s">
-        <v>406</v>
-      </c>
-      <c r="AW58" s="101" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="AO59" s="99" t="s">
-        <v>400</v>
-      </c>
-      <c r="AP59" s="100">
-        <v>14</v>
-      </c>
-      <c r="AQ59" s="100">
-        <v>14</v>
-      </c>
-      <c r="AR59" s="100" t="s">
-        <v>401</v>
-      </c>
-      <c r="AS59" s="100" t="s">
+      <c r="AS60" s="84" t="s">
         <v>398</v>
       </c>
-      <c r="AT59" s="100" t="s">
-        <v>375</v>
-      </c>
-      <c r="AU59" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="AV59" s="100" t="s">
-        <v>407</v>
-      </c>
-      <c r="AW59" s="101" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="AO60" s="102" t="s">
-        <v>403</v>
-      </c>
-      <c r="AP60" s="103">
-        <v>14</v>
-      </c>
-      <c r="AQ60" s="103">
-        <v>14</v>
-      </c>
-      <c r="AR60" s="103" t="s">
+      <c r="AT60" s="84" t="s">
         <v>404</v>
       </c>
-      <c r="AS60" s="103" t="s">
-        <v>398</v>
-      </c>
-      <c r="AT60" s="103" t="s">
-        <v>375</v>
-      </c>
-      <c r="AU60" s="103" t="s">
+      <c r="AU60" s="84" t="s">
         <v>411</v>
       </c>
-      <c r="AV60" s="103" t="s">
+      <c r="AV60" s="84" t="s">
         <v>408</v>
       </c>
-      <c r="AW60" s="104" t="s">
+      <c r="AW60" s="85" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-    </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+      <c r="K61" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61" t="s">
+        <v>7</v>
+      </c>
+      <c r="U61" t="s">
+        <v>114</v>
+      </c>
+      <c r="V61" s="14">
+        <v>143</v>
+      </c>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AE61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF61" s="14">
+        <v>138</v>
+      </c>
+      <c r="AH61" s="52"/>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="52"/>
+      <c r="AK61" s="52"/>
+      <c r="AL61" s="52"/>
+      <c r="AM61" s="52"/>
+      <c r="AR61" s="28"/>
+    </row>
+    <row r="62" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+      <c r="K62" t="s">
+        <v>103</v>
+      </c>
+      <c r="L62" t="s">
+        <v>117</v>
+      </c>
+      <c r="M62" t="s">
+        <v>116</v>
+      </c>
+      <c r="U62" t="s">
+        <v>115</v>
+      </c>
+      <c r="V62" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>121</v>
+      </c>
       <c r="AN62" s="6"/>
-      <c r="AX62" s="62"/>
-    </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="AR62" s="28"/>
+      <c r="AX62" s="52"/>
+    </row>
+    <row r="63" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L63" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M63" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N63" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="O63" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P63" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q63" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="R63" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S63" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s">
+        <v>103</v>
+      </c>
+      <c r="V63" t="s">
+        <v>117</v>
+      </c>
+      <c r="W63" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>116</v>
+      </c>
       <c r="AN63" s="6"/>
-      <c r="AO63" s="80" t="s">
+      <c r="AO63" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="AR63" s="62"/>
-      <c r="AS63" s="62"/>
-      <c r="AT63" s="62"/>
-      <c r="AU63" s="62"/>
-      <c r="AV63" s="62"/>
-      <c r="AW63" s="62"/>
-      <c r="AX63" s="62"/>
-    </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="AR63" s="28"/>
+      <c r="AS63" s="52"/>
+      <c r="AT63" s="52"/>
+      <c r="AU63" s="52"/>
+      <c r="AV63" s="52"/>
+      <c r="AW63" s="52"/>
+      <c r="AX63" s="52"/>
+    </row>
+    <row r="64" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="72">
+        <v>24</v>
+      </c>
+      <c r="C64" s="72">
+        <v>30</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="F64" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="H64" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="I64" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="K64" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="72">
+        <v>23</v>
+      </c>
+      <c r="M64" s="72">
+        <v>30</v>
+      </c>
+      <c r="N64" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O64" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="P64" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q64" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="R64" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="S64" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="U64" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="V64" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="W64" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="X64" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y64" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z64" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA64" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB64" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC64" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE64" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF64" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG64" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH64" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI64" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ64" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK64" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL64" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM64" s="55" t="s">
+        <v>40</v>
+      </c>
       <c r="AN64" s="6"/>
       <c r="AO64" t="s">
         <v>114</v>
@@ -4156,24 +6490,123 @@
       <c r="AP64" s="14">
         <v>152</v>
       </c>
-      <c r="AR64" s="62"/>
-      <c r="AS64" s="62"/>
-      <c r="AT64" s="62"/>
-      <c r="AU64" s="62"/>
-      <c r="AV64" s="62"/>
-      <c r="AW64" s="62"/>
-      <c r="AX64" s="62"/>
+      <c r="AR64" s="52"/>
+      <c r="AS64" s="52"/>
+      <c r="AT64" s="52"/>
+      <c r="AU64" s="52"/>
+      <c r="AV64" s="52"/>
+      <c r="AW64" s="52"/>
+      <c r="AX64" s="52"/>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="A65" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="75">
+        <v>23</v>
+      </c>
+      <c r="C65" s="75">
+        <v>30</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="G65" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H65" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="I65" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="K65" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="L65" s="75">
+        <v>22</v>
+      </c>
+      <c r="M65" s="75">
+        <v>30</v>
+      </c>
+      <c r="N65" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O65" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P65" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q65" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="R65" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="S65" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="U65" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="V65" s="72">
+        <v>23</v>
+      </c>
+      <c r="W65" s="72">
+        <v>30</v>
+      </c>
+      <c r="X65" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y65" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z65" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA65" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB65" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC65" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE65" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF65" s="72">
+        <v>24</v>
+      </c>
+      <c r="AG65" s="72">
+        <v>30</v>
+      </c>
+      <c r="AH65" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI65" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ65" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK65" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL65" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM65" s="73" t="s">
+        <v>428</v>
+      </c>
       <c r="AN65" s="6"/>
       <c r="AO65" t="s">
         <v>115</v>
@@ -4181,18 +6614,117 @@
       <c r="AP65" t="s">
         <v>246</v>
       </c>
-      <c r="AX65" s="62"/>
+      <c r="AX65" s="52"/>
     </row>
     <row r="66" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="A66" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="75">
+        <v>23</v>
+      </c>
+      <c r="C66" s="75">
+        <v>30</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F66" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="G66" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="H66" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="I66" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="K66" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="L66" s="75">
+        <v>21</v>
+      </c>
+      <c r="M66" s="75">
+        <v>30</v>
+      </c>
+      <c r="N66" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O66" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P66" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q66" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="R66" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="S66" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="U66" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="V66" s="75">
+        <v>22</v>
+      </c>
+      <c r="W66" s="75">
+        <v>30</v>
+      </c>
+      <c r="X66" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y66" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z66" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA66" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB66" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC66" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE66" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF66" s="75">
+        <v>23</v>
+      </c>
+      <c r="AG66" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH66" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI66" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ66" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK66" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL66" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM66" s="76" t="s">
+        <v>434</v>
+      </c>
       <c r="AN66" s="6"/>
       <c r="AO66" t="s">
         <v>103</v>
@@ -4203,311 +6735,896 @@
       <c r="AQ66" t="s">
         <v>116</v>
       </c>
-      <c r="AX66" s="62"/>
+      <c r="AX66" s="52"/>
     </row>
     <row r="67" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="A67" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="75">
+        <v>20</v>
+      </c>
+      <c r="C67" s="75">
+        <v>30</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F67" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="G67" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="H67" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="I67" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="K67" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="L67" s="75">
+        <v>20</v>
+      </c>
+      <c r="M67" s="75">
+        <v>30</v>
+      </c>
+      <c r="N67" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O67" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P67" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q67" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="R67" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="S67" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="U67" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="V67" s="75">
+        <v>21</v>
+      </c>
+      <c r="W67" s="75">
+        <v>30</v>
+      </c>
+      <c r="X67" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y67" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z67" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA67" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB67" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC67" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE67" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF67" s="75">
+        <v>23</v>
+      </c>
+      <c r="AG67" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH67" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI67" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ67" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK67" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL67" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM67" s="76" t="s">
+        <v>435</v>
+      </c>
       <c r="AN67" s="2"/>
-      <c r="AO67" s="63" t="s">
+      <c r="AO67" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AP67" s="64" t="s">
+      <c r="AP67" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AQ67" s="64" t="s">
+      <c r="AQ67" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="AR67" s="64" t="s">
+      <c r="AR67" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="AS67" s="64" t="s">
+      <c r="AS67" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="AT67" s="64" t="s">
+      <c r="AT67" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="AU67" s="64" t="s">
+      <c r="AU67" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AV67" s="64" t="s">
+      <c r="AV67" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AW67" s="65" t="s">
+      <c r="AW67" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="AO68" s="81" t="s">
+      <c r="A68" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="75">
+        <v>18</v>
+      </c>
+      <c r="C68" s="75">
+        <v>30</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F68" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="G68" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="I68" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="K68" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="L68" s="75">
+        <v>20</v>
+      </c>
+      <c r="M68" s="75">
+        <v>30</v>
+      </c>
+      <c r="N68" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O68" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P68" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q68" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="R68" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="S68" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="U68" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="V68" s="75">
+        <v>20</v>
+      </c>
+      <c r="W68" s="75">
+        <v>30</v>
+      </c>
+      <c r="X68" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y68" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z68" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA68" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB68" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC68" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE68" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF68" s="75">
+        <v>20</v>
+      </c>
+      <c r="AG68" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH68" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI68" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ68" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK68" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL68" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM68" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO68" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AP68" s="82">
+      <c r="AP68" s="72">
         <v>24</v>
       </c>
-      <c r="AQ68" s="82">
+      <c r="AQ68" s="72">
         <v>30</v>
       </c>
-      <c r="AR68" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS68" s="82" t="s">
+      <c r="AR68" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS68" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="AT68" s="82" t="s">
+      <c r="AT68" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="AU68" s="82" t="s">
+      <c r="AU68" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="AV68" s="82" t="s">
+      <c r="AV68" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="AW68" s="83" t="s">
+      <c r="AW68" s="73" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="AO69" s="84" t="s">
+      <c r="A69" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="75">
+        <v>17</v>
+      </c>
+      <c r="C69" s="75">
+        <v>30</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F69" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="G69" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="H69" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="I69" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="K69" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="AP69" s="85">
+      <c r="L69" s="75">
+        <v>19</v>
+      </c>
+      <c r="M69" s="75">
+        <v>30</v>
+      </c>
+      <c r="N69" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O69" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P69" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q69" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="R69" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="S69" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="U69" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="V69" s="75">
+        <v>20</v>
+      </c>
+      <c r="W69" s="75">
+        <v>30</v>
+      </c>
+      <c r="X69" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y69" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z69" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA69" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB69" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC69" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE69" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF69" s="75">
+        <v>18</v>
+      </c>
+      <c r="AG69" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH69" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI69" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ69" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK69" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL69" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM69" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="AO69" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP69" s="75">
         <v>24</v>
       </c>
-      <c r="AQ69" s="85">
+      <c r="AQ69" s="75">
         <v>30</v>
       </c>
-      <c r="AR69" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS69" s="85" t="s">
+      <c r="AR69" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS69" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT69" s="85" t="s">
+      <c r="AT69" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="AU69" s="85" t="s">
+      <c r="AU69" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="AV69" s="85" t="s">
+      <c r="AV69" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="AW69" s="86" t="s">
+      <c r="AW69" s="76" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="AO70" s="84" t="s">
+    <row r="70" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="78">
+        <v>13</v>
+      </c>
+      <c r="C70" s="78">
+        <v>14</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="E70" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="F70" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="G70" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="H70" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="I70" s="79" t="s">
+        <v>441</v>
+      </c>
+      <c r="K70" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="L70" s="78">
+        <v>18</v>
+      </c>
+      <c r="M70" s="78">
+        <v>30</v>
+      </c>
+      <c r="N70" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="O70" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="P70" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q70" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="R70" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="S70" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="U70" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="V70" s="75">
+        <v>19</v>
+      </c>
+      <c r="W70" s="75">
+        <v>30</v>
+      </c>
+      <c r="X70" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y70" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z70" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA70" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB70" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC70" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE70" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF70" s="75">
+        <v>17</v>
+      </c>
+      <c r="AG70" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH70" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI70" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ70" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK70" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL70" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM70" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO70" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="AP70" s="85">
+      <c r="AP70" s="75">
         <v>23</v>
       </c>
-      <c r="AQ70" s="85">
+      <c r="AQ70" s="75">
         <v>30</v>
       </c>
-      <c r="AR70" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS70" s="85" t="s">
+      <c r="AR70" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS70" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT70" s="85" t="s">
+      <c r="AT70" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="AU70" s="85" t="s">
+      <c r="AU70" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="AV70" s="85" t="s">
+      <c r="AV70" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="AW70" s="86" t="s">
+      <c r="AW70" s="76" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="AO71" s="84" t="s">
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="U71" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="V71" s="78">
+        <v>18</v>
+      </c>
+      <c r="W71" s="78">
+        <v>30</v>
+      </c>
+      <c r="X71" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y71" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z71" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA71" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB71" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC71" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE71" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF71" s="78">
+        <v>13</v>
+      </c>
+      <c r="AG71" s="78">
+        <v>14</v>
+      </c>
+      <c r="AH71" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI71" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ71" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK71" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL71" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM71" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="AO71" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="AP71" s="85">
+      <c r="AP71" s="75">
         <v>21</v>
       </c>
-      <c r="AQ71" s="85">
+      <c r="AQ71" s="75">
         <v>30</v>
       </c>
-      <c r="AR71" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS71" s="85" t="s">
+      <c r="AR71" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS71" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT71" s="85" t="s">
+      <c r="AT71" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="AU71" s="85" t="s">
+      <c r="AU71" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="AV71" s="85" t="s">
+      <c r="AV71" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="AW71" s="86" t="s">
+      <c r="AW71" s="76" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="AO72" s="84" t="s">
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="28"/>
+      <c r="AH72" s="28"/>
+      <c r="AI72" s="28"/>
+      <c r="AJ72" s="28"/>
+      <c r="AK72" s="28"/>
+      <c r="AL72" s="28"/>
+      <c r="AM72" s="28"/>
+      <c r="AO72" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="AP72" s="85">
+      <c r="AP72" s="75">
         <v>20</v>
       </c>
-      <c r="AQ72" s="85">
+      <c r="AQ72" s="75">
         <v>30</v>
       </c>
-      <c r="AR72" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS72" s="85" t="s">
+      <c r="AR72" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS72" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT72" s="85" t="s">
+      <c r="AT72" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="AU72" s="85" t="s">
+      <c r="AU72" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="AV72" s="85" t="s">
+      <c r="AV72" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="AW72" s="86" t="s">
+      <c r="AW72" s="76" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="AO73" s="84" t="s">
+      <c r="A73" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="K73" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="28"/>
+      <c r="AH73" s="28"/>
+      <c r="AI73" s="28"/>
+      <c r="AJ73" s="28"/>
+      <c r="AK73" s="28"/>
+      <c r="AL73" s="28"/>
+      <c r="AM73" s="28"/>
+      <c r="AO73" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="AP73" s="85">
+      <c r="AP73" s="75">
         <v>20</v>
       </c>
-      <c r="AQ73" s="85">
+      <c r="AQ73" s="75">
         <v>30</v>
       </c>
-      <c r="AR73" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS73" s="85" t="s">
+      <c r="AR73" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS73" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT73" s="85" t="s">
+      <c r="AT73" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="AU73" s="85" t="s">
+      <c r="AU73" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="AV73" s="85" t="s">
+      <c r="AV73" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="AW73" s="86" t="s">
+      <c r="AW73" s="76" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="AO74" s="87" t="s">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="14">
+        <v>138</v>
+      </c>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="K74" t="s">
+        <v>114</v>
+      </c>
+      <c r="L74" s="14">
+        <v>143</v>
+      </c>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="U74" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="52"/>
+      <c r="AB74" s="52"/>
+      <c r="AC74" s="52"/>
+      <c r="AE74" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH74" s="52"/>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="52"/>
+      <c r="AM74" s="52"/>
+      <c r="AO74" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="AP74" s="88">
+      <c r="AP74" s="78">
         <v>20</v>
       </c>
-      <c r="AQ74" s="88">
+      <c r="AQ74" s="78">
         <v>30</v>
       </c>
-      <c r="AR74" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS74" s="88" t="s">
+      <c r="AR74" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS74" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="AT74" s="88" t="s">
+      <c r="AT74" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="AU74" s="88" t="s">
+      <c r="AU74" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="AV74" s="88" t="s">
+      <c r="AV74" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="AW74" s="89" t="s">
+      <c r="AW74" s="79" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="A75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>233</v>
+      </c>
+      <c r="K75" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75" t="s">
+        <v>230</v>
+      </c>
+      <c r="U75" t="s">
+        <v>114</v>
+      </c>
+      <c r="V75" s="14">
+        <v>138</v>
+      </c>
+      <c r="X75" s="52"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="52"/>
+      <c r="AB75" s="52"/>
+      <c r="AC75" s="52"/>
+      <c r="AE75" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF75" s="14">
+        <v>138</v>
+      </c>
+      <c r="AH75" s="52"/>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="52"/>
+      <c r="AK75" s="52"/>
+      <c r="AL75" s="52"/>
+      <c r="AM75" s="52"/>
       <c r="AO75" s="6"/>
       <c r="AP75" s="6"/>
       <c r="AQ75" s="6"/>
@@ -4518,12 +7635,37 @@
       <c r="AV75" s="6"/>
       <c r="AW75" s="6"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
+    <row r="76" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="K76" t="s">
+        <v>103</v>
+      </c>
+      <c r="L76" t="s">
+        <v>117</v>
+      </c>
+      <c r="M76" t="s">
+        <v>116</v>
+      </c>
+      <c r="U76" t="s">
+        <v>115</v>
+      </c>
+      <c r="V76" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>123</v>
+      </c>
       <c r="AO76" s="2"/>
       <c r="AP76" s="2"/>
       <c r="AQ76" s="2"/>
@@ -4533,54 +7675,430 @@
       <c r="AV76" s="2"/>
       <c r="AW76" s="2"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="AO78" s="80" t="s">
+    <row r="77" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I77" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L77" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M77" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N77" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="O77" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P77" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q77" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="R77" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S77" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s">
+        <v>103</v>
+      </c>
+      <c r="V77" t="s">
+        <v>117</v>
+      </c>
+      <c r="W77" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="72">
+        <v>24</v>
+      </c>
+      <c r="C78" s="72">
+        <v>30</v>
+      </c>
+      <c r="D78" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="F78" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="H78" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="I78" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="K78" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="L78" s="72">
+        <v>23</v>
+      </c>
+      <c r="M78" s="72">
+        <v>30</v>
+      </c>
+      <c r="N78" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O78" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="P78" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q78" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="R78" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="S78" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="U78" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="V78" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="W78" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="X78" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y78" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z78" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA78" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB78" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC78" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE78" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF78" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG78" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH78" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI78" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ78" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK78" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL78" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM78" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO78" s="70" t="s">
         <v>334</v>
       </c>
-      <c r="AR78" s="62"/>
-      <c r="AS78" s="62"/>
-      <c r="AT78" s="62"/>
-      <c r="AU78" s="62"/>
-      <c r="AV78" s="62"/>
-      <c r="AW78" s="62"/>
+      <c r="AR78" s="52"/>
+      <c r="AS78" s="52"/>
+      <c r="AT78" s="52"/>
+      <c r="AU78" s="52"/>
+      <c r="AV78" s="52"/>
+      <c r="AW78" s="52"/>
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
+      <c r="A79" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="75">
+        <v>23</v>
+      </c>
+      <c r="C79" s="75">
+        <v>30</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F79" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="G79" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H79" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="I79" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="K79" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="L79" s="75">
+        <v>22</v>
+      </c>
+      <c r="M79" s="75">
+        <v>30</v>
+      </c>
+      <c r="N79" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O79" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P79" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q79" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="R79" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="S79" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="U79" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="V79" s="72">
+        <v>24</v>
+      </c>
+      <c r="W79" s="72">
+        <v>30</v>
+      </c>
+      <c r="X79" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y79" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z79" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA79" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB79" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC79" s="73" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE79" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF79" s="72">
+        <v>24</v>
+      </c>
+      <c r="AG79" s="72">
+        <v>30</v>
+      </c>
+      <c r="AH79" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI79" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ79" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK79" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL79" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM79" s="73" t="s">
+        <v>428</v>
+      </c>
       <c r="AO79" t="s">
         <v>114</v>
       </c>
       <c r="AP79" s="14">
         <v>146</v>
       </c>
-      <c r="AR79" s="62"/>
-      <c r="AS79" s="62"/>
-      <c r="AT79" s="62"/>
-      <c r="AU79" s="62"/>
-      <c r="AV79" s="62"/>
-      <c r="AW79" s="62"/>
+      <c r="AR79" s="52"/>
+      <c r="AS79" s="52"/>
+      <c r="AT79" s="52"/>
+      <c r="AU79" s="52"/>
+      <c r="AV79" s="52"/>
+      <c r="AW79" s="52"/>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="A80" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="75">
+        <v>23</v>
+      </c>
+      <c r="C80" s="75">
+        <v>30</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F80" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="G80" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="H80" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="I80" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="K80" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="L80" s="75">
+        <v>21</v>
+      </c>
+      <c r="M80" s="75">
+        <v>30</v>
+      </c>
+      <c r="N80" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O80" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P80" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q80" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="R80" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="S80" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="U80" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="V80" s="75">
+        <v>23</v>
+      </c>
+      <c r="W80" s="75">
+        <v>30</v>
+      </c>
+      <c r="X80" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y80" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z80" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA80" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB80" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC80" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE80" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF80" s="75">
+        <v>23</v>
+      </c>
+      <c r="AG80" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH80" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI80" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ80" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK80" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL80" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM80" s="76" t="s">
+        <v>434</v>
+      </c>
       <c r="AO80" t="s">
         <v>115</v>
       </c>
@@ -4589,11 +8107,114 @@
       </c>
     </row>
     <row r="81" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
+      <c r="A81" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="75">
+        <v>20</v>
+      </c>
+      <c r="C81" s="75">
+        <v>30</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F81" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="G81" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="H81" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="I81" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="K81" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="L81" s="75">
+        <v>20</v>
+      </c>
+      <c r="M81" s="75">
+        <v>30</v>
+      </c>
+      <c r="N81" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O81" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P81" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q81" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="R81" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="S81" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="U81" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="V81" s="75">
+        <v>23</v>
+      </c>
+      <c r="W81" s="75">
+        <v>30</v>
+      </c>
+      <c r="X81" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y81" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z81" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA81" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB81" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC81" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE81" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF81" s="75">
+        <v>23</v>
+      </c>
+      <c r="AG81" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH81" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI81" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ81" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK81" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL81" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM81" s="76" t="s">
+        <v>435</v>
+      </c>
       <c r="AO81" t="s">
         <v>103</v>
       </c>
@@ -4605,138 +8226,501 @@
       </c>
     </row>
     <row r="82" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="AO82" s="63" t="s">
+      <c r="A82" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="75">
+        <v>18</v>
+      </c>
+      <c r="C82" s="75">
+        <v>30</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F82" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="H82" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="I82" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="K82" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="L82" s="75">
+        <v>20</v>
+      </c>
+      <c r="M82" s="75">
+        <v>30</v>
+      </c>
+      <c r="N82" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O82" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P82" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q82" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="R82" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="S82" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="U82" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="V82" s="75">
+        <v>20</v>
+      </c>
+      <c r="W82" s="75">
+        <v>30</v>
+      </c>
+      <c r="X82" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y82" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z82" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA82" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB82" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC82" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE82" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF82" s="75">
+        <v>20</v>
+      </c>
+      <c r="AG82" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH82" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI82" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ82" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK82" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="AL82" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="AM82" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO82" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AP82" s="64" t="s">
+      <c r="AP82" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AQ82" s="64" t="s">
+      <c r="AQ82" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="AR82" s="64" t="s">
+      <c r="AR82" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="AS82" s="64" t="s">
+      <c r="AS82" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="AT82" s="64" t="s">
+      <c r="AT82" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="AU82" s="64" t="s">
+      <c r="AU82" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AV82" s="64" t="s">
+      <c r="AV82" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AW82" s="65" t="s">
+      <c r="AW82" s="55" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="AO83" s="81" t="s">
+      <c r="A83" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="75">
+        <v>17</v>
+      </c>
+      <c r="C83" s="75">
+        <v>30</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="F83" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="H83" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="I83" s="76" t="s">
+        <v>438</v>
+      </c>
+      <c r="K83" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="L83" s="75">
+        <v>19</v>
+      </c>
+      <c r="M83" s="75">
+        <v>30</v>
+      </c>
+      <c r="N83" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O83" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="P83" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q83" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="R83" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="S83" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="U83" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="V83" s="75">
+        <v>18</v>
+      </c>
+      <c r="W83" s="75">
+        <v>30</v>
+      </c>
+      <c r="X83" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y83" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z83" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA83" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB83" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC83" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE83" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF83" s="75">
+        <v>18</v>
+      </c>
+      <c r="AG83" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH83" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI83" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ83" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK83" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL83" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM83" s="102" t="s">
+        <v>437</v>
+      </c>
+      <c r="AO83" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="AP83" s="82">
+      <c r="AP83" s="72">
         <v>24</v>
       </c>
-      <c r="AQ83" s="82">
+      <c r="AQ83" s="72">
         <v>30</v>
       </c>
-      <c r="AR83" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS83" s="82" t="s">
+      <c r="AR83" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS83" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="AT83" s="82" t="s">
+      <c r="AT83" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="AU83" s="82" t="s">
+      <c r="AU83" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="AV83" s="82" t="s">
+      <c r="AV83" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="AW83" s="83" t="s">
+      <c r="AW83" s="73" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="AO84" s="84" t="s">
+    <row r="84" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="78">
+        <v>13</v>
+      </c>
+      <c r="C84" s="78">
+        <v>14</v>
+      </c>
+      <c r="D84" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="E84" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="F84" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="G84" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="H84" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="I84" s="79" t="s">
+        <v>441</v>
+      </c>
+      <c r="K84" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="L84" s="78">
+        <v>18</v>
+      </c>
+      <c r="M84" s="78">
+        <v>30</v>
+      </c>
+      <c r="N84" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="O84" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="P84" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q84" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="R84" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="S84" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="U84" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="V84" s="75">
+        <v>17</v>
+      </c>
+      <c r="W84" s="75">
+        <v>30</v>
+      </c>
+      <c r="X84" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y84" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z84" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA84" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB84" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC84" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE84" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF84" s="75">
+        <v>17</v>
+      </c>
+      <c r="AG84" s="75">
+        <v>30</v>
+      </c>
+      <c r="AH84" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI84" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ84" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK84" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL84" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="AM84" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="AO84" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="AP84" s="85">
+      <c r="AP84" s="75">
         <v>23</v>
       </c>
-      <c r="AQ84" s="85">
+      <c r="AQ84" s="75">
         <v>30</v>
       </c>
-      <c r="AR84" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS84" s="85" t="s">
+      <c r="AR84" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS84" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT84" s="85" t="s">
+      <c r="AT84" s="75" t="s">
         <v>336</v>
       </c>
-      <c r="AU84" s="85" t="s">
+      <c r="AU84" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="AV84" s="85" t="s">
+      <c r="AV84" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="AW84" s="86" t="s">
+      <c r="AW84" s="76" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-      <c r="AO85" s="84" t="s">
+      <c r="U85" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="V85" s="78">
+        <v>13</v>
+      </c>
+      <c r="W85" s="78">
+        <v>14</v>
+      </c>
+      <c r="X85" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y85" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z85" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA85" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB85" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC85" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE85" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF85" s="78">
+        <v>13</v>
+      </c>
+      <c r="AG85" s="78">
+        <v>30</v>
+      </c>
+      <c r="AH85" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI85" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="AJ85" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK85" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL85" s="78" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM85" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="AO85" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="AP85" s="85">
+      <c r="AP85" s="75">
         <v>22</v>
       </c>
-      <c r="AQ85" s="85">
+      <c r="AQ85" s="75">
         <v>30</v>
       </c>
-      <c r="AR85" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS85" s="85" t="s">
+      <c r="AR85" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS85" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT85" s="85" t="s">
+      <c r="AT85" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="AU85" s="85" t="s">
+      <c r="AU85" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="AV85" s="85" t="s">
+      <c r="AV85" s="75" t="s">
         <v>350</v>
       </c>
-      <c r="AW85" s="86" t="s">
+      <c r="AW85" s="76" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4746,31 +8730,31 @@
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-      <c r="AO86" s="84" t="s">
+      <c r="AO86" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="AP86" s="85">
+      <c r="AP86" s="75">
         <v>20</v>
       </c>
-      <c r="AQ86" s="85">
+      <c r="AQ86" s="75">
         <v>30</v>
       </c>
-      <c r="AR86" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS86" s="85" t="s">
+      <c r="AR86" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS86" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT86" s="85" t="s">
+      <c r="AT86" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="AU86" s="85" t="s">
+      <c r="AU86" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="AV86" s="85" t="s">
+      <c r="AV86" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="AW86" s="86" t="s">
+      <c r="AW86" s="76" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4780,31 +8764,31 @@
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="AO87" s="84" t="s">
+      <c r="AO87" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="AP87" s="85">
+      <c r="AP87" s="75">
         <v>20</v>
       </c>
-      <c r="AQ87" s="85">
+      <c r="AQ87" s="75">
         <v>30</v>
       </c>
-      <c r="AR87" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS87" s="85" t="s">
+      <c r="AR87" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS87" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT87" s="85" t="s">
+      <c r="AT87" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="AU87" s="85" t="s">
+      <c r="AU87" s="75" t="s">
         <v>358</v>
       </c>
-      <c r="AV87" s="85" t="s">
+      <c r="AV87" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="AW87" s="86" t="s">
+      <c r="AW87" s="76" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4814,31 +8798,31 @@
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-      <c r="AO88" s="84" t="s">
+      <c r="AO88" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="AP88" s="85">
+      <c r="AP88" s="75">
         <v>19</v>
       </c>
-      <c r="AQ88" s="85">
+      <c r="AQ88" s="75">
         <v>30</v>
       </c>
-      <c r="AR88" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS88" s="85" t="s">
+      <c r="AR88" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS88" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="AT88" s="85" t="s">
+      <c r="AT88" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="AU88" s="85" t="s">
+      <c r="AU88" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="AV88" s="85" t="s">
+      <c r="AV88" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="AW88" s="86" t="s">
+      <c r="AW88" s="76" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4848,31 +8832,31 @@
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
-      <c r="AO89" s="87" t="s">
+      <c r="AO89" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="AP89" s="88">
+      <c r="AP89" s="78">
         <v>18</v>
       </c>
-      <c r="AQ89" s="88">
+      <c r="AQ89" s="78">
         <v>30</v>
       </c>
-      <c r="AR89" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS89" s="88" t="s">
+      <c r="AR89" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS89" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="AT89" s="88" t="s">
+      <c r="AT89" s="78" t="s">
         <v>346</v>
       </c>
-      <c r="AU89" s="88" t="s">
+      <c r="AU89" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="AV89" s="88" t="s">
+      <c r="AV89" s="78" t="s">
         <v>354</v>
       </c>
-      <c r="AW89" s="89" t="s">
+      <c r="AW89" s="79" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4896,15 +8880,15 @@
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
-      <c r="AO92" s="80" t="s">
+      <c r="AO92" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="AR92" s="62"/>
-      <c r="AS92" s="62"/>
-      <c r="AT92" s="62"/>
-      <c r="AU92" s="62"/>
-      <c r="AV92" s="62"/>
-      <c r="AW92" s="62"/>
+      <c r="AR92" s="52"/>
+      <c r="AS92" s="52"/>
+      <c r="AT92" s="52"/>
+      <c r="AU92" s="52"/>
+      <c r="AV92" s="52"/>
+      <c r="AW92" s="52"/>
     </row>
     <row r="93" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
@@ -4918,12 +8902,12 @@
       <c r="AP93" s="14">
         <v>138</v>
       </c>
-      <c r="AR93" s="62"/>
-      <c r="AS93" s="62"/>
-      <c r="AT93" s="62"/>
-      <c r="AU93" s="62"/>
-      <c r="AV93" s="62"/>
-      <c r="AW93" s="62"/>
+      <c r="AR93" s="52"/>
+      <c r="AS93" s="52"/>
+      <c r="AT93" s="52"/>
+      <c r="AU93" s="52"/>
+      <c r="AV93" s="52"/>
+      <c r="AW93" s="52"/>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
@@ -4960,31 +8944,31 @@
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
-      <c r="AO96" s="63" t="s">
+      <c r="AO96" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="AP96" s="64" t="s">
+      <c r="AP96" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="AQ96" s="64" t="s">
+      <c r="AQ96" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="AR96" s="64" t="s">
+      <c r="AR96" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="AS96" s="64" t="s">
+      <c r="AS96" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="AT96" s="64" t="s">
+      <c r="AT96" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="AU96" s="64" t="s">
+      <c r="AU96" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AV96" s="64" t="s">
+      <c r="AV96" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AW96" s="65" t="s">
+      <c r="AW96" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4993,31 +8977,31 @@
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-      <c r="AO97" s="81" t="s">
+      <c r="AO97" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="AP97" s="82">
+      <c r="AP97" s="72">
         <v>24</v>
       </c>
-      <c r="AQ97" s="82">
+      <c r="AQ97" s="72">
         <v>30</v>
       </c>
-      <c r="AR97" s="82" t="s">
+      <c r="AR97" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS97" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT97" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="AS97" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT97" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU97" s="82" t="s">
+      <c r="AU97" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="AV97" s="82" t="s">
+      <c r="AV97" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="AW97" s="83" t="s">
+      <c r="AW97" s="73" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5026,31 +9010,31 @@
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
-      <c r="AO98" s="84" t="s">
+      <c r="AO98" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="AP98" s="85">
+      <c r="AP98" s="75">
         <v>23</v>
       </c>
-      <c r="AQ98" s="85">
+      <c r="AQ98" s="75">
         <v>30</v>
       </c>
-      <c r="AR98" s="85" t="s">
+      <c r="AR98" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS98" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT98" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="AS98" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT98" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU98" s="85" t="s">
+      <c r="AU98" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="AV98" s="85" t="s">
+      <c r="AV98" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="AW98" s="86" t="s">
+      <c r="AW98" s="76" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5059,31 +9043,31 @@
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
-      <c r="AO99" s="84" t="s">
+      <c r="AO99" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="AP99" s="85">
+      <c r="AP99" s="75">
         <v>23</v>
       </c>
-      <c r="AQ99" s="85">
+      <c r="AQ99" s="75">
         <v>30</v>
       </c>
-      <c r="AR99" s="85" t="s">
+      <c r="AR99" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS99" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT99" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="AS99" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT99" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU99" s="85" t="s">
+      <c r="AU99" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="AV99" s="85" t="s">
+      <c r="AV99" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="AW99" s="86" t="s">
+      <c r="AW99" s="76" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5092,31 +9076,31 @@
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
-      <c r="AO100" s="84" t="s">
+      <c r="AO100" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="AP100" s="85">
+      <c r="AP100" s="75">
         <v>20</v>
       </c>
-      <c r="AQ100" s="85">
+      <c r="AQ100" s="75">
         <v>30</v>
       </c>
-      <c r="AR100" s="85" t="s">
+      <c r="AR100" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS100" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT100" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="AS100" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT100" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU100" s="85" t="s">
+      <c r="AU100" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="AV100" s="85" t="s">
+      <c r="AV100" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="AW100" s="86" t="s">
+      <c r="AW100" s="76" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5125,31 +9109,31 @@
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
-      <c r="AO101" s="84" t="s">
+      <c r="AO101" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="AP101" s="85">
+      <c r="AP101" s="75">
         <v>18</v>
       </c>
-      <c r="AQ101" s="85">
+      <c r="AQ101" s="75">
         <v>30</v>
       </c>
-      <c r="AR101" s="85" t="s">
+      <c r="AR101" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS101" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT101" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="AS101" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT101" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU101" s="85" t="s">
+      <c r="AU101" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="AV101" s="85" t="s">
+      <c r="AV101" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="AW101" s="86" t="s">
+      <c r="AW101" s="76" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5158,31 +9142,31 @@
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
-      <c r="AO102" s="84" t="s">
+      <c r="AO102" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="AP102" s="85">
+      <c r="AP102" s="75">
         <v>17</v>
       </c>
-      <c r="AQ102" s="85">
+      <c r="AQ102" s="75">
         <v>30</v>
       </c>
-      <c r="AR102" s="85" t="s">
+      <c r="AR102" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS102" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT102" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="AS102" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="AT102" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU102" s="85" t="s">
+      <c r="AU102" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="AV102" s="85" t="s">
+      <c r="AV102" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="AW102" s="86" t="s">
+      <c r="AW102" s="76" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5191,31 +9175,31 @@
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
-      <c r="AO103" s="87" t="s">
+      <c r="AO103" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="AP103" s="88">
+      <c r="AP103" s="78">
         <v>13</v>
       </c>
-      <c r="AQ103" s="88">
+      <c r="AQ103" s="78">
         <v>14</v>
       </c>
-      <c r="AR103" s="88" t="s">
+      <c r="AR103" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS103" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT103" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="AS103" s="88" t="s">
-        <v>374</v>
-      </c>
-      <c r="AT103" s="88" t="s">
-        <v>375</v>
-      </c>
-      <c r="AU103" s="88" t="s">
+      <c r="AU103" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="AV103" s="85" t="s">
+      <c r="AV103" s="99" t="s">
         <v>380</v>
       </c>
-      <c r="AW103" s="89" t="s">
+      <c r="AW103" s="79" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5230,46 +9214,53 @@
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
+      <c r="AT105" s="28"/>
     </row>
     <row r="106" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
+      <c r="AT106" s="28"/>
     </row>
     <row r="107" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
+      <c r="AT107" s="28"/>
     </row>
     <row r="108" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
+      <c r="AT108" s="28"/>
     </row>
     <row r="109" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
+      <c r="AT109" s="28"/>
     </row>
     <row r="110" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
+      <c r="AT110" s="28"/>
     </row>
     <row r="111" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
+      <c r="AT111" s="28"/>
     </row>
   </sheetData>
-  <sortState ref="K36:L38">
-    <sortCondition ref="L36"/>
+  <sortState ref="AE65:AF71">
+    <sortCondition descending="1" ref="AF65:AF71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5280,8 +9271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5345,36 +9336,36 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="90" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="90" t="s">
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="90" t="s">
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="90" t="s">
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="92"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="98"/>
     </row>
     <row r="6" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -5987,62 +9978,62 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="96">
+      <c r="B15" s="90">
         <f>B14+C14+D14+E14</f>
         <v>579</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="96">
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90">
         <f>F14+G14+H14+I14</f>
         <v>585</v>
       </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="96">
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="90">
         <f>J14+K14+L14+M14</f>
         <v>580</v>
       </c>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="96">
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="90">
         <f>N14+O14+P14+Q14</f>
         <v>590</v>
       </c>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="96">
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="90">
         <f>R14+S14+T14+U14</f>
         <v>571</v>
       </c>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="98"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="92"/>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="R15:U15"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6053,8 +10044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,16 +10066,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
       <c r="K5" t="s">
         <v>192</v>
       </c>
@@ -6150,31 +10141,31 @@
       <c r="A8" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="49" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6182,31 +10173,31 @@
       <c r="A9" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="49" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6214,31 +10205,31 @@
       <c r="A10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="49" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6246,31 +10237,31 @@
       <c r="A11" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="49" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6278,31 +10269,31 @@
       <c r="A12" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="49" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6310,25 +10301,25 @@
       <c r="A13" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="46" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6336,25 +10327,25 @@
       <c r="A14" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="48" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6362,21 +10353,21 @@
       <c r="A17" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="45" t="s">
         <v>388</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="44" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6396,98 +10387,98 @@
       <c r="A20" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6521,12 +10512,12 @@
       <c r="A2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -6683,13 +10674,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="96">
+      <c r="B12" s="90">
         <f>B11+C11+D11+E11</f>
         <v>322</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/SUBNETEO REDES.xlsx
+++ b/SUBNETEO REDES.xlsx
@@ -1852,33 +1852,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1892,6 +1865,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2184,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL73" sqref="AL73"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4163,7 +4163,7 @@
       <c r="R38" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="S38" s="102" t="s">
+      <c r="S38" s="93" t="s">
         <v>436</v>
       </c>
       <c r="U38" s="74" t="s">
@@ -4301,7 +4301,7 @@
       <c r="R39" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="S39" s="102" t="s">
+      <c r="S39" s="93" t="s">
         <v>437</v>
       </c>
       <c r="U39" s="74" t="s">
@@ -4328,7 +4328,7 @@
       <c r="AB39" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AC39" s="102" t="s">
+      <c r="AC39" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AE39" s="74" t="s">
@@ -4355,7 +4355,7 @@
       <c r="AL39" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AM39" s="102" t="s">
+      <c r="AM39" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AO39" s="6"/>
@@ -4419,7 +4419,7 @@
       <c r="R40" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="S40" s="102" t="s">
+      <c r="S40" s="93" t="s">
         <v>438</v>
       </c>
       <c r="U40" s="74" t="s">
@@ -4446,7 +4446,7 @@
       <c r="AB40" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AC40" s="102" t="s">
+      <c r="AC40" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AE40" s="74" t="s">
@@ -4473,7 +4473,7 @@
       <c r="AL40" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AM40" s="102" t="s">
+      <c r="AM40" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AO40" s="50" t="s">
@@ -4532,7 +4532,7 @@
       <c r="R41" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="S41" s="103" t="s">
+      <c r="S41" s="94" t="s">
         <v>439</v>
       </c>
       <c r="U41" s="74" t="s">
@@ -4559,7 +4559,7 @@
       <c r="AB41" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AC41" s="102" t="s">
+      <c r="AC41" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AE41" s="74" t="s">
@@ -4586,7 +4586,7 @@
       <c r="AL41" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AM41" s="102" t="s">
+      <c r="AM41" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AO41" t="s">
@@ -4645,7 +4645,7 @@
       <c r="AB42" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="AC42" s="103" t="s">
+      <c r="AC42" s="94" t="s">
         <v>439</v>
       </c>
       <c r="AE42" s="77" t="s">
@@ -4672,7 +4672,7 @@
       <c r="AL42" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="AM42" s="103" t="s">
+      <c r="AM42" s="94" t="s">
         <v>439</v>
       </c>
       <c r="AO42" t="s">
@@ -4973,7 +4973,7 @@
         <v>116</v>
       </c>
       <c r="D48" s="6"/>
-      <c r="E48" s="100"/>
+      <c r="E48" s="91"/>
       <c r="F48" s="28"/>
       <c r="K48" t="s">
         <v>103</v>
@@ -5034,7 +5034,7 @@
       <c r="C49" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="92" t="s">
         <v>103</v>
       </c>
       <c r="E49" s="54" t="s">
@@ -5561,7 +5561,7 @@
       <c r="R53" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="S53" s="102" t="s">
+      <c r="S53" s="93" t="s">
         <v>436</v>
       </c>
       <c r="U53" s="74" t="s">
@@ -5680,7 +5680,7 @@
       <c r="R54" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="S54" s="102" t="s">
+      <c r="S54" s="93" t="s">
         <v>437</v>
       </c>
       <c r="U54" s="74" t="s">
@@ -5707,7 +5707,7 @@
       <c r="AB54" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AC54" s="102" t="s">
+      <c r="AC54" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AE54" s="74" t="s">
@@ -5734,7 +5734,7 @@
       <c r="AL54" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AM54" s="102" t="s">
+      <c r="AM54" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AO54" t="s">
@@ -5802,7 +5802,7 @@
       <c r="R55" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="S55" s="102" t="s">
+      <c r="S55" s="93" t="s">
         <v>438</v>
       </c>
       <c r="U55" s="74" t="s">
@@ -5829,7 +5829,7 @@
       <c r="AB55" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AC55" s="102" t="s">
+      <c r="AC55" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AE55" s="74" t="s">
@@ -5856,7 +5856,7 @@
       <c r="AL55" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AM55" s="102" t="s">
+      <c r="AM55" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AO55" t="s">
@@ -5918,7 +5918,7 @@
       <c r="R56" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="S56" s="103" t="s">
+      <c r="S56" s="94" t="s">
         <v>439</v>
       </c>
       <c r="U56" s="74" t="s">
@@ -5945,7 +5945,7 @@
       <c r="AB56" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AC56" s="102" t="s">
+      <c r="AC56" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AE56" s="74" t="s">
@@ -5972,7 +5972,7 @@
       <c r="AL56" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AM56" s="102" t="s">
+      <c r="AM56" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AO56" t="s">
@@ -6010,7 +6010,7 @@
       <c r="AB57" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="AC57" s="103" t="s">
+      <c r="AC57" s="94" t="s">
         <v>439</v>
       </c>
       <c r="AE57" s="77" t="s">
@@ -6037,7 +6037,7 @@
       <c r="AL57" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="AM57" s="103" t="s">
+      <c r="AM57" s="94" t="s">
         <v>439</v>
       </c>
       <c r="AO57" s="86" t="s">
@@ -6789,7 +6789,7 @@
       <c r="R67" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="S67" s="102" t="s">
+      <c r="S67" s="93" t="s">
         <v>436</v>
       </c>
       <c r="U67" s="74" t="s">
@@ -6927,7 +6927,7 @@
       <c r="R68" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="S68" s="102" t="s">
+      <c r="S68" s="93" t="s">
         <v>437</v>
       </c>
       <c r="U68" s="74" t="s">
@@ -6954,7 +6954,7 @@
       <c r="AB68" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AC68" s="102" t="s">
+      <c r="AC68" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AE68" s="74" t="s">
@@ -6981,7 +6981,7 @@
       <c r="AL68" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AM68" s="102" t="s">
+      <c r="AM68" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AO68" s="71" t="s">
@@ -7064,7 +7064,7 @@
       <c r="R69" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="S69" s="102" t="s">
+      <c r="S69" s="93" t="s">
         <v>438</v>
       </c>
       <c r="U69" s="74" t="s">
@@ -7091,7 +7091,7 @@
       <c r="AB69" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AC69" s="102" t="s">
+      <c r="AC69" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AE69" s="74" t="s">
@@ -7118,7 +7118,7 @@
       <c r="AL69" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AM69" s="102" t="s">
+      <c r="AM69" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AO69" s="74" t="s">
@@ -7201,7 +7201,7 @@
       <c r="R70" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="S70" s="103" t="s">
+      <c r="S70" s="94" t="s">
         <v>439</v>
       </c>
       <c r="U70" s="74" t="s">
@@ -7228,7 +7228,7 @@
       <c r="AB70" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AC70" s="102" t="s">
+      <c r="AC70" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AE70" s="74" t="s">
@@ -7255,7 +7255,7 @@
       <c r="AL70" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AM70" s="102" t="s">
+      <c r="AM70" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AO70" s="74" t="s">
@@ -7329,7 +7329,7 @@
       <c r="AB71" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="AC71" s="103" t="s">
+      <c r="AC71" s="94" t="s">
         <v>439</v>
       </c>
       <c r="AE71" s="77" t="s">
@@ -7356,7 +7356,7 @@
       <c r="AL71" s="78" t="s">
         <v>440</v>
       </c>
-      <c r="AM71" s="103" t="s">
+      <c r="AM71" s="94" t="s">
         <v>441</v>
       </c>
       <c r="AO71" s="74" t="s">
@@ -8158,7 +8158,7 @@
       <c r="R81" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="S81" s="102" t="s">
+      <c r="S81" s="93" t="s">
         <v>436</v>
       </c>
       <c r="U81" s="74" t="s">
@@ -8277,7 +8277,7 @@
       <c r="R82" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="S82" s="102" t="s">
+      <c r="S82" s="93" t="s">
         <v>437</v>
       </c>
       <c r="U82" s="74" t="s">
@@ -8304,7 +8304,7 @@
       <c r="AB82" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AC82" s="102" t="s">
+      <c r="AC82" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AE82" s="74" t="s">
@@ -8331,7 +8331,7 @@
       <c r="AL82" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="AM82" s="102" t="s">
+      <c r="AM82" s="93" t="s">
         <v>436</v>
       </c>
       <c r="AO82" s="53" t="s">
@@ -8414,7 +8414,7 @@
       <c r="R83" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="S83" s="102" t="s">
+      <c r="S83" s="93" t="s">
         <v>438</v>
       </c>
       <c r="U83" s="74" t="s">
@@ -8441,7 +8441,7 @@
       <c r="AB83" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AC83" s="102" t="s">
+      <c r="AC83" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AE83" s="74" t="s">
@@ -8468,7 +8468,7 @@
       <c r="AL83" s="75" t="s">
         <v>419</v>
       </c>
-      <c r="AM83" s="102" t="s">
+      <c r="AM83" s="93" t="s">
         <v>437</v>
       </c>
       <c r="AO83" s="71" t="s">
@@ -8551,7 +8551,7 @@
       <c r="R84" s="78" t="s">
         <v>433</v>
       </c>
-      <c r="S84" s="103" t="s">
+      <c r="S84" s="94" t="s">
         <v>439</v>
       </c>
       <c r="U84" s="74" t="s">
@@ -8578,7 +8578,7 @@
       <c r="AB84" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AC84" s="102" t="s">
+      <c r="AC84" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AE84" s="74" t="s">
@@ -8605,7 +8605,7 @@
       <c r="AL84" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="AM84" s="102" t="s">
+      <c r="AM84" s="93" t="s">
         <v>438</v>
       </c>
       <c r="AO84" s="74" t="s">
@@ -8666,7 +8666,7 @@
       <c r="AB85" s="78" t="s">
         <v>440</v>
       </c>
-      <c r="AC85" s="103" t="s">
+      <c r="AC85" s="94" t="s">
         <v>441</v>
       </c>
       <c r="AE85" s="77" t="s">
@@ -8693,7 +8693,7 @@
       <c r="AL85" s="78" t="s">
         <v>440</v>
       </c>
-      <c r="AM85" s="103" t="s">
+      <c r="AM85" s="94" t="s">
         <v>441</v>
       </c>
       <c r="AO85" s="74" t="s">
@@ -9196,7 +9196,7 @@
       <c r="AU103" s="78" t="s">
         <v>387</v>
       </c>
-      <c r="AV103" s="99" t="s">
+      <c r="AV103" s="90" t="s">
         <v>380</v>
       </c>
       <c r="AW103" s="79" t="s">
@@ -9303,69 +9303,69 @@
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="93" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="93" t="s">
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="93" t="s">
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="94"/>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="93" t="s">
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="95"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="100"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="96" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="96" t="s">
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="96" t="s">
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="96" t="s">
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="98"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="97"/>
     </row>
     <row r="6" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -9978,62 +9978,62 @@
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
-      <c r="B15" s="90">
+      <c r="B15" s="101">
         <f>B14+C14+D14+E14</f>
         <v>579</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="90">
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="101">
         <f>F14+G14+H14+I14</f>
         <v>585</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="90">
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="101">
         <f>J14+K14+L14+M14</f>
         <v>580</v>
       </c>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="90">
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="101">
         <f>N14+O14+P14+Q14</f>
         <v>590</v>
       </c>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="90">
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="101">
         <f>R14+S14+T14+U14</f>
         <v>571</v>
       </c>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="92"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="103"/>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="R5:U5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:U15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10501,23 +10501,23 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -10674,13 +10674,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
-      <c r="B12" s="90">
+      <c r="B12" s="101">
         <f>B11+C11+D11+E11</f>
         <v>322</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
